--- a/Erwin.xlsx
+++ b/Erwin.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/baudin/Projects/aria-excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73E9AE21-C07A-B746-9B84-4C3CD92F6C65}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62EDE59D-AE2C-BC4F-932A-E1DB6D929FD3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38200" windowHeight="23540" xr2:uid="{47C10E70-C8A1-594D-875F-C0FED4FAA393}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38200" windowHeight="23540" activeTab="1" xr2:uid="{47C10E70-C8A1-594D-875F-C0FED4FAA393}"/>
   </bookViews>
   <sheets>
     <sheet name="Character Sheet" sheetId="1" r:id="rId1"/>
@@ -214,7 +214,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="289">
   <si>
     <t>Weapon Skill</t>
   </si>
@@ -247,9 +247,6 @@
   </si>
   <si>
     <t>Charm</t>
-  </si>
-  <si>
-    <t>Torture</t>
   </si>
   <si>
     <t>Inspire</t>
@@ -1028,9 +1025,6 @@
     <t>Weapon does +10 DMG, can be cast on 5 people at once</t>
   </si>
   <si>
-    <t>Unknown</t>
-  </si>
-  <si>
     <t>Great Sword</t>
   </si>
   <si>
@@ -1080,6 +1074,15 @@
   </si>
   <si>
     <t>Stat Rolls</t>
+  </si>
+  <si>
+    <t>Wilderness Surv.</t>
+  </si>
+  <si>
+    <t>Haggle</t>
+  </si>
+  <si>
+    <t>Kuifje</t>
   </si>
 </sst>
 </file>
@@ -1812,72 +1815,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1896,6 +1833,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1905,8 +1860,62 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1917,12 +1926,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1931,6 +1934,292 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="297">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thick">
+          <color theme="4" tint="0.39994506668294322"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -5524,16 +5813,6 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -5587,6 +5866,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -5606,112 +5886,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thick">
-          <color theme="4" tint="0.39994506668294322"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -5854,7 +6030,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -5893,138 +6068,6 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -6650,46 +6693,6 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -6866,87 +6869,87 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{172D7A85-ACEB-9F45-BDE6-0764A63BAFE0}" name="Table7" displayName="Table7" ref="A1:R58" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{172D7A85-ACEB-9F45-BDE6-0764A63BAFE0}" name="Table7" displayName="Table7" ref="A1:R58" totalsRowShown="0" headerRowDxfId="62" dataDxfId="61">
   <autoFilter ref="A1:R58" xr:uid="{BA70A05F-D1C9-EC47-8CA4-A9B304C93060}"/>
   <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{98665492-075C-D44B-8EDA-A52F37F4C96E}" name="Name" dataDxfId="35"/>
-    <tableColumn id="2" xr3:uid="{73639F93-F9BF-204E-AEC8-CAA30EB8D6B5}" name="STR" dataDxfId="34"/>
-    <tableColumn id="3" xr3:uid="{6B9E0521-C50E-264F-9593-C1F9E4D23715}" name="AGI" dataDxfId="33"/>
-    <tableColumn id="4" xr3:uid="{44939BD3-1FFC-3E45-994F-37661A933E0C}" name="INU" dataDxfId="32"/>
-    <tableColumn id="18" xr3:uid="{556D51F8-4C69-4644-B0FC-A64BD79C53F2}" name="CHA" dataDxfId="31"/>
-    <tableColumn id="5" xr3:uid="{5BFA8BB0-66CB-0546-8525-FCA528C6BD63}" name="PER" dataDxfId="30"/>
-    <tableColumn id="6" xr3:uid="{3512D05D-3A98-B245-A95E-F240DF5C3211}" name="HP Factor" dataDxfId="29"/>
-    <tableColumn id="7" xr3:uid="{D0765DA9-8712-204F-B9A9-1B49046E2AAD}" name="XP" dataDxfId="28"/>
-    <tableColumn id="8" xr3:uid="{597A7743-384F-C14E-BB6E-C23E1C6CE1CA}" name="Column2" dataDxfId="27"/>
-    <tableColumn id="9" xr3:uid="{60EC4EF6-1D62-7949-816C-66C151F7BFBA}" name="Column3" dataDxfId="26"/>
-    <tableColumn id="10" xr3:uid="{F0B18199-5A5B-414E-8450-522D2887E3DD}" name="Column4" dataDxfId="25"/>
-    <tableColumn id="11" xr3:uid="{5A39FD33-B251-5041-8B88-5B33BFD6B2FC}" name="Column5" dataDxfId="24"/>
-    <tableColumn id="12" xr3:uid="{CF21C245-91A7-BB49-9363-D365711ABDF3}" name="Column6" dataDxfId="23"/>
-    <tableColumn id="13" xr3:uid="{B44C18CE-6E00-724D-B4CD-609ADE475EB9}" name="Column7" dataDxfId="22"/>
-    <tableColumn id="14" xr3:uid="{901CE9F9-D8E2-2E46-9384-039CDF6A0ABF}" name="Column8" dataDxfId="21"/>
-    <tableColumn id="15" xr3:uid="{964E2ED5-56C5-014E-BF41-7C68744CD8FA}" name="Column9" dataDxfId="20"/>
-    <tableColumn id="16" xr3:uid="{BDC3BBC8-C722-A94E-89BC-53601B603859}" name="Column10" dataDxfId="19"/>
-    <tableColumn id="17" xr3:uid="{6085284D-3498-D640-B82F-39D5127439B9}" name="Column11" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{98665492-075C-D44B-8EDA-A52F37F4C96E}" name="Name" dataDxfId="60"/>
+    <tableColumn id="2" xr3:uid="{73639F93-F9BF-204E-AEC8-CAA30EB8D6B5}" name="STR" dataDxfId="59"/>
+    <tableColumn id="3" xr3:uid="{6B9E0521-C50E-264F-9593-C1F9E4D23715}" name="AGI" dataDxfId="58"/>
+    <tableColumn id="4" xr3:uid="{44939BD3-1FFC-3E45-994F-37661A933E0C}" name="INU" dataDxfId="57"/>
+    <tableColumn id="18" xr3:uid="{556D51F8-4C69-4644-B0FC-A64BD79C53F2}" name="CHA" dataDxfId="56"/>
+    <tableColumn id="5" xr3:uid="{5BFA8BB0-66CB-0546-8525-FCA528C6BD63}" name="PER" dataDxfId="55"/>
+    <tableColumn id="6" xr3:uid="{3512D05D-3A98-B245-A95E-F240DF5C3211}" name="HP Factor" dataDxfId="54"/>
+    <tableColumn id="7" xr3:uid="{D0765DA9-8712-204F-B9A9-1B49046E2AAD}" name="XP" dataDxfId="53"/>
+    <tableColumn id="8" xr3:uid="{597A7743-384F-C14E-BB6E-C23E1C6CE1CA}" name="Column2" dataDxfId="52"/>
+    <tableColumn id="9" xr3:uid="{60EC4EF6-1D62-7949-816C-66C151F7BFBA}" name="Column3" dataDxfId="51"/>
+    <tableColumn id="10" xr3:uid="{F0B18199-5A5B-414E-8450-522D2887E3DD}" name="Column4" dataDxfId="50"/>
+    <tableColumn id="11" xr3:uid="{5A39FD33-B251-5041-8B88-5B33BFD6B2FC}" name="Column5" dataDxfId="49"/>
+    <tableColumn id="12" xr3:uid="{CF21C245-91A7-BB49-9363-D365711ABDF3}" name="Column6" dataDxfId="48"/>
+    <tableColumn id="13" xr3:uid="{B44C18CE-6E00-724D-B4CD-609ADE475EB9}" name="Column7" dataDxfId="47"/>
+    <tableColumn id="14" xr3:uid="{901CE9F9-D8E2-2E46-9384-039CDF6A0ABF}" name="Column8" dataDxfId="46"/>
+    <tableColumn id="15" xr3:uid="{964E2ED5-56C5-014E-BF41-7C68744CD8FA}" name="Column9" dataDxfId="45"/>
+    <tableColumn id="16" xr3:uid="{BDC3BBC8-C722-A94E-89BC-53601B603859}" name="Column10" dataDxfId="44"/>
+    <tableColumn id="17" xr3:uid="{6085284D-3498-D640-B82F-39D5127439B9}" name="Column11" dataDxfId="43"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{78200D4B-54DE-294C-A2EC-E7A9132DE4A6}" name="Table6" displayName="Table6" ref="A1:C15" totalsRowShown="0" headerRowDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{78200D4B-54DE-294C-A2EC-E7A9132DE4A6}" name="Table6" displayName="Table6" ref="A1:C15" totalsRowShown="0" headerRowDxfId="42">
   <autoFilter ref="A1:C15" xr:uid="{155EBD5E-3DA9-7C4C-98B7-91D73ABBCBEA}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{AE3CEFB8-A81B-1945-B935-54D9C303AE90}" name="XP" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{BC117F6B-7A72-794E-A7A9-35C1983CB4DB}" name="Level" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{B8412833-42B8-AC4F-8B3F-0E354215D314}" name="Expertise" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{AE3CEFB8-A81B-1945-B935-54D9C303AE90}" name="XP" dataDxfId="41"/>
+    <tableColumn id="2" xr3:uid="{BC117F6B-7A72-794E-A7A9-35C1983CB4DB}" name="Level" dataDxfId="40"/>
+    <tableColumn id="3" xr3:uid="{B8412833-42B8-AC4F-8B3F-0E354215D314}" name="Expertise" dataDxfId="39"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{26ECF4A8-7727-1C46-A7B9-8B557DBD00C1}" name="Table10" displayName="Table10" ref="E1:G14" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{26ECF4A8-7727-1C46-A7B9-8B557DBD00C1}" name="Table10" displayName="Table10" ref="E1:G14" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37">
   <autoFilter ref="E1:G14" xr:uid="{5644FF1C-D713-604E-8E6F-FA601D66BB9F}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{3666EECD-8766-9142-ADF8-3E0E7512115A}" name="Rank" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{73A0B26C-75CB-ED4F-882C-B1AFE5834235}" name="XP" dataDxfId="10">
+    <tableColumn id="1" xr3:uid="{3666EECD-8766-9142-ADF8-3E0E7512115A}" name="Rank" dataDxfId="36"/>
+    <tableColumn id="2" xr3:uid="{73A0B26C-75CB-ED4F-882C-B1AFE5834235}" name="XP" dataDxfId="35">
       <calculatedColumnFormula>F1+G1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{51D4A3E4-3DB9-124B-945D-53E6771F1494}" name="XP_ADD" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{51D4A3E4-3DB9-124B-945D-53E6771F1494}" name="XP_ADD" dataDxfId="34"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{4895560C-F7FE-264B-9757-BE94C044D54A}" name="Table13" displayName="Table13" ref="I1:L10" totalsRowShown="0" headerRowDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{4895560C-F7FE-264B-9757-BE94C044D54A}" name="Table13" displayName="Table13" ref="I1:L10" totalsRowShown="0" headerRowDxfId="33">
   <autoFilter ref="I1:L10" xr:uid="{8133F681-167D-F049-9826-3312B39E818C}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{48A52C97-1904-CD46-80EA-064E09AAF69B}" name="Type"/>
-    <tableColumn id="2" xr3:uid="{38C00C01-3C20-6D47-A5EB-F3A7BEAEC051}" name="Armor" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{EE898554-2F74-C149-B88C-AF12B4508BF3}" name="INI" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{F349EE49-F581-BB4C-8F32-35834A1E04BF}" name="Movement" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{38C00C01-3C20-6D47-A5EB-F3A7BEAEC051}" name="Armor" dataDxfId="32"/>
+    <tableColumn id="3" xr3:uid="{EE898554-2F74-C149-B88C-AF12B4508BF3}" name="INI" dataDxfId="31"/>
+    <tableColumn id="4" xr3:uid="{F349EE49-F581-BB4C-8F32-35834A1E04BF}" name="Movement" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{B7E950BC-4606-8A49-8B91-DEC3B6A9BAA8}" name="Table1315" displayName="Table1315" ref="O1:S10" totalsRowShown="0" headerRowDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{B7E950BC-4606-8A49-8B91-DEC3B6A9BAA8}" name="Table1315" displayName="Table1315" ref="O1:S10" totalsRowShown="0" headerRowDxfId="29">
   <autoFilter ref="O1:S10" xr:uid="{2A1B3E48-F34C-174D-8FBD-7A506A55BF41}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{94233833-88FD-1A4A-B618-9CFA4BB779D8}" name="Type"/>
-    <tableColumn id="2" xr3:uid="{65FF8683-7DAD-9541-BA3F-72C23BBAA524}" name="Armor" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{0071B3F4-3F31-4840-9341-10D8AB7C1EFB}" name="INI" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{0770FF4B-C599-B144-8E09-19F1C8E836A2}" name="Movement" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{E5FDFDB6-BBF2-DC42-8D85-B230C4C6AECD}" name="Dodge" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{65FF8683-7DAD-9541-BA3F-72C23BBAA524}" name="Armor" dataDxfId="28"/>
+    <tableColumn id="4" xr3:uid="{0071B3F4-3F31-4840-9341-10D8AB7C1EFB}" name="INI" dataDxfId="27"/>
+    <tableColumn id="5" xr3:uid="{0770FF4B-C599-B144-8E09-19F1C8E836A2}" name="Movement" dataDxfId="26"/>
+    <tableColumn id="6" xr3:uid="{E5FDFDB6-BBF2-DC42-8D85-B230C4C6AECD}" name="Dodge" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{77A7907B-AE9B-314A-992E-E0A4617DC74E}" name="Table1" displayName="Table1" ref="A1:O7" totalsRowCount="1" headerRowDxfId="280" dataDxfId="279">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{77A7907B-AE9B-314A-992E-E0A4617DC74E}" name="Table1" displayName="Table1" ref="A1:O7" totalsRowCount="1" headerRowDxfId="288" dataDxfId="287">
   <autoFilter ref="A1:O6" xr:uid="{60B8AEF8-2C69-5B48-9C1A-DCFAB2AD983D}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -6965,35 +6968,35 @@
     <filterColumn colId="14" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{1782BAF0-6CF8-464E-925A-9A2A96505774}" name="Name" totalsRowLabel="Total XP" dataDxfId="278" totalsRowDxfId="277"/>
-    <tableColumn id="2" xr3:uid="{9BCB48E4-DBE3-5942-8D75-286CC1057954}" name="Code" totalsRowFunction="custom" dataDxfId="276" totalsRowDxfId="275">
+    <tableColumn id="1" xr3:uid="{1782BAF0-6CF8-464E-925A-9A2A96505774}" name="Name" totalsRowLabel="Total XP" dataDxfId="286" totalsRowDxfId="285"/>
+    <tableColumn id="2" xr3:uid="{9BCB48E4-DBE3-5942-8D75-286CC1057954}" name="Code" totalsRowFunction="custom" dataDxfId="284" totalsRowDxfId="283">
       <totalsRowFormula>SUM(Table1[[#Totals],[Bought]:[Expert]])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{CA9C36A3-6157-BA4C-AA92-67A100D27609}" name="Bought" totalsRowFunction="custom" dataDxfId="274" totalsRowDxfId="273">
+    <tableColumn id="3" xr3:uid="{CA9C36A3-6157-BA4C-AA92-67A100D27609}" name="Bought" totalsRowFunction="custom" dataDxfId="282" totalsRowDxfId="281">
       <totalsRowFormula>COUNTIF(Table1[Bought], "Yes") * 2</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{CA0D2A17-FBA4-5E4F-B125-4C070D8788C4}" name="Skilled" totalsRowFunction="custom" dataDxfId="272" totalsRowDxfId="271">
+    <tableColumn id="4" xr3:uid="{CA0D2A17-FBA4-5E4F-B125-4C070D8788C4}" name="Skilled" totalsRowFunction="custom" dataDxfId="280" totalsRowDxfId="279">
       <totalsRowFormula>COUNTIF(Table1[Skilled], "Yes") * 3</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{A7566064-06E8-8E44-98CD-C54733321306}" name="Expert" totalsRowFunction="custom" dataDxfId="270" totalsRowDxfId="269">
+    <tableColumn id="5" xr3:uid="{A7566064-06E8-8E44-98CD-C54733321306}" name="Expert" totalsRowFunction="custom" dataDxfId="278" totalsRowDxfId="277">
       <totalsRowFormula>COUNTIF(Table1[Expert], "Yes") * 3</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{2FBFFF7E-FF36-3B4A-B953-C82904D36913}" name="DICE" dataDxfId="268" totalsRowDxfId="267"/>
-    <tableColumn id="8" xr3:uid="{C8BCD9D1-3FE9-3647-A609-5788CD8AB7AD}" name="START" dataDxfId="266" totalsRowDxfId="265"/>
-    <tableColumn id="14" xr3:uid="{6C3C1930-198A-CA42-8563-974CFD7E82BB}" name="RACE" dataDxfId="264" totalsRowDxfId="263"/>
-    <tableColumn id="9" xr3:uid="{22F7BDEA-1AD8-5343-8765-89D3F14F6903}" name="PROF" dataDxfId="262" totalsRowDxfId="261">
+    <tableColumn id="7" xr3:uid="{2FBFFF7E-FF36-3B4A-B953-C82904D36913}" name="DICE" dataDxfId="276" totalsRowDxfId="275"/>
+    <tableColumn id="8" xr3:uid="{C8BCD9D1-3FE9-3647-A609-5788CD8AB7AD}" name="START" dataDxfId="274" totalsRowDxfId="273"/>
+    <tableColumn id="14" xr3:uid="{6C3C1930-198A-CA42-8563-974CFD7E82BB}" name="RACE" dataDxfId="272" totalsRowDxfId="271"/>
+    <tableColumn id="9" xr3:uid="{22F7BDEA-1AD8-5343-8765-89D3F14F6903}" name="PROF" dataDxfId="270" totalsRowDxfId="269">
       <calculatedColumnFormula>VLOOKUP(PROF,Table7[],Table7[[#Headers],[STR]],FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{2075AAEA-B6EA-0E43-A822-11D62BB1BE24}" name="EQ." dataDxfId="260" totalsRowDxfId="259"/>
-    <tableColumn id="6" xr3:uid="{0AD5C3C3-BBF8-D24A-B215-5FCDD41C3025}" name="Weapons" dataDxfId="258" totalsRowDxfId="257"/>
-    <tableColumn id="11" xr3:uid="{97BDD625-37C1-2848-8E6B-2AB44DBA88F9}" name="BONUS" dataDxfId="256" totalsRowDxfId="255"/>
-    <tableColumn id="12" xr3:uid="{5E1E8E4D-E523-3C4D-9FE9-AB8CFD8BE3A1}" name="TOTAL" dataDxfId="254" totalsRowDxfId="253">
+    <tableColumn id="10" xr3:uid="{2075AAEA-B6EA-0E43-A822-11D62BB1BE24}" name="EQ." dataDxfId="268" totalsRowDxfId="267"/>
+    <tableColumn id="6" xr3:uid="{0AD5C3C3-BBF8-D24A-B215-5FCDD41C3025}" name="Weapons" dataDxfId="266" totalsRowDxfId="265"/>
+    <tableColumn id="11" xr3:uid="{97BDD625-37C1-2848-8E6B-2AB44DBA88F9}" name="BONUS" dataDxfId="264" totalsRowDxfId="263"/>
+    <tableColumn id="12" xr3:uid="{5E1E8E4D-E523-3C4D-9FE9-AB8CFD8BE3A1}" name="TOTAL" dataDxfId="262" totalsRowDxfId="261">
       <calculatedColumnFormula>SUM(Table1[[#This Row],[START]:[BONUS]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{B331F653-0EE6-C649-97EB-5E84A49DCF84}" name="STAT" dataDxfId="252" totalsRowDxfId="251">
+    <tableColumn id="13" xr3:uid="{B331F653-0EE6-C649-97EB-5E84A49DCF84}" name="STAT" dataDxfId="260" totalsRowDxfId="259">
       <calculatedColumnFormula>ROUNDUP(Table1[[#This Row],[TOTAL]]/10, 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{E9A47421-916C-7F48-A22E-F14FB2F5F313}" name="Roll" dataDxfId="250" totalsRowDxfId="249">
+    <tableColumn id="15" xr3:uid="{E9A47421-916C-7F48-A22E-F14FB2F5F313}" name="Roll" dataDxfId="258" totalsRowDxfId="257">
       <calculatedColumnFormula>Table1[[#This Row],[DICE]] &amp; " " &amp; CHAR(43) &amp; " " &amp; IF(Table1[[#This Row],[Skilled]] = "Yes",LVL,0) + IF(Table1[[#This Row],[Expert]]="Yes",EXPERTISE,0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7002,35 +7005,35 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{95EE0547-B330-BF4F-8608-1382B945C7E0}" name="Table2" displayName="Table2" ref="A1:K35" totalsRowCount="1" headerRowDxfId="244" dataDxfId="243">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{95EE0547-B330-BF4F-8608-1382B945C7E0}" name="Table2" displayName="Table2" ref="A1:K35" totalsRowCount="1" headerRowDxfId="256" dataDxfId="255">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{488891F9-A380-104B-B93D-C02458C8FA29}" name="Name" totalsRowLabel="Total" dataDxfId="242" totalsRowDxfId="241"/>
-    <tableColumn id="2" xr3:uid="{93A5AD0F-341D-E245-AF40-3EAD21FC48A0}" name="Statistic" totalsRowFunction="custom" dataDxfId="240" totalsRowDxfId="239">
+    <tableColumn id="1" xr3:uid="{488891F9-A380-104B-B93D-C02458C8FA29}" name="Name" totalsRowLabel="Total" dataDxfId="254" totalsRowDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{93A5AD0F-341D-E245-AF40-3EAD21FC48A0}" name="Statistic" totalsRowFunction="custom" dataDxfId="253" totalsRowDxfId="9">
       <totalsRowFormula>SUM(Table2[[#Totals],[Bought]:[Expert]])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{FE35E503-2EA7-A343-99C7-C5C5899FC054}" name="Bought" totalsRowFunction="custom" dataDxfId="238" totalsRowDxfId="237">
+    <tableColumn id="3" xr3:uid="{FE35E503-2EA7-A343-99C7-C5C5899FC054}" name="Bought" totalsRowFunction="custom" dataDxfId="252" totalsRowDxfId="8">
       <totalsRowFormula>COUNTIF(Table2[Bought],"Yes") * 2</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{98DF01DF-054B-914B-974E-8AF998FF4E53}" name="Skilled" totalsRowFunction="custom" dataDxfId="236" totalsRowDxfId="235">
+    <tableColumn id="4" xr3:uid="{98DF01DF-054B-914B-974E-8AF998FF4E53}" name="Skilled" totalsRowFunction="custom" dataDxfId="251" totalsRowDxfId="7">
       <totalsRowFormula>COUNTIF(Table2[Skilled],"Yes") * 3</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{C62BCE48-B5FF-6A47-AA15-86C6BDEC45D6}" name="Professional" totalsRowFunction="custom" dataDxfId="234" totalsRowDxfId="233">
+    <tableColumn id="5" xr3:uid="{C62BCE48-B5FF-6A47-AA15-86C6BDEC45D6}" name="Professional" totalsRowFunction="custom" dataDxfId="250" totalsRowDxfId="6">
       <totalsRowFormula>COUNTIF(Table2[Professional],"Yes") * 4</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{D9F29455-4DAB-6A40-8A17-0CA575126A74}" name="Expert" totalsRowFunction="custom" dataDxfId="232" totalsRowDxfId="231">
+    <tableColumn id="6" xr3:uid="{D9F29455-4DAB-6A40-8A17-0CA575126A74}" name="Expert" totalsRowFunction="custom" dataDxfId="249" totalsRowDxfId="5">
       <totalsRowFormula>COUNTIF(Table2[Expert],"Yes") * 5</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{D32EF9E9-A539-8B41-871A-B89EA355F651}" name="DICE" dataDxfId="230" totalsRowDxfId="229">
+    <tableColumn id="8" xr3:uid="{D32EF9E9-A539-8B41-871A-B89EA355F651}" name="DICE" dataDxfId="248" totalsRowDxfId="4">
       <calculatedColumnFormula>IF(C2="Yes","1d20","1d10")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{C1A4C07D-E510-A944-A562-B1C910EB2898}" name="STAT" dataDxfId="228" totalsRowDxfId="227">
+    <tableColumn id="9" xr3:uid="{C1A4C07D-E510-A944-A562-B1C910EB2898}" name="STAT" dataDxfId="247" totalsRowDxfId="3">
       <calculatedColumnFormula>IF(Table2[[#This Row],[Skilled]] = "YES",VLOOKUP(Table2[[#This Row],[Statistic]],Table1[[Code]:[STAT]],13,FALSE), 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{0B24A7B2-5A09-214A-A140-1714C5D361A4}" name="LEVEL" dataDxfId="226" totalsRowDxfId="225">
+    <tableColumn id="10" xr3:uid="{0B24A7B2-5A09-214A-A140-1714C5D361A4}" name="LEVEL" dataDxfId="246" totalsRowDxfId="2">
       <calculatedColumnFormula>IF(Table2[[#This Row],[Professional]]="Yes",LVL,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{356CD671-6933-4E45-8BBD-9402E92B4106}" name="EXP." dataDxfId="224" totalsRowDxfId="223"/>
-    <tableColumn id="12" xr3:uid="{28D63D3F-7CDE-BD4A-8D01-F7FC776D2F9A}" name="TOTAL" dataDxfId="222" totalsRowDxfId="221">
+    <tableColumn id="11" xr3:uid="{356CD671-6933-4E45-8BBD-9402E92B4106}" name="EXP." dataDxfId="245" totalsRowDxfId="1"/>
+    <tableColumn id="12" xr3:uid="{28D63D3F-7CDE-BD4A-8D01-F7FC776D2F9A}" name="TOTAL" dataDxfId="244" totalsRowDxfId="0">
       <calculatedColumnFormula>Table2[[#This Row],[DICE]] &amp; " " &amp; CHAR(43) &amp; " " &amp; SUM(H2:J2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7039,35 +7042,35 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{3AD258F9-46CB-0748-BE8B-849C3A884EB8}" name="Table217" displayName="Table217" ref="A1:K17" totalsRowCount="1" headerRowDxfId="218" dataDxfId="217">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{3AD258F9-46CB-0748-BE8B-849C3A884EB8}" name="Table217" displayName="Table217" ref="A1:K17" totalsRowCount="1" headerRowDxfId="243" dataDxfId="242">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{87BB9924-DBC9-8B4C-98A3-1C64069A7F16}" name="Name" totalsRowLabel="Total" dataDxfId="216" totalsRowDxfId="215"/>
-    <tableColumn id="2" xr3:uid="{C7B0EDCD-3736-3443-8494-C77B335F22CF}" name="Statistic" totalsRowFunction="custom" dataDxfId="214" totalsRowDxfId="213">
+    <tableColumn id="1" xr3:uid="{87BB9924-DBC9-8B4C-98A3-1C64069A7F16}" name="Name" totalsRowLabel="Total" dataDxfId="241" totalsRowDxfId="240"/>
+    <tableColumn id="2" xr3:uid="{C7B0EDCD-3736-3443-8494-C77B335F22CF}" name="Statistic" totalsRowFunction="custom" dataDxfId="239" totalsRowDxfId="238">
       <totalsRowFormula>SUM(Table217[[#Totals],[Bought]:[Expert]])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{DB3431C6-D27C-1F4F-A527-26C5173FD0AF}" name="Bought" totalsRowFunction="custom" dataDxfId="212" totalsRowDxfId="211">
+    <tableColumn id="3" xr3:uid="{DB3431C6-D27C-1F4F-A527-26C5173FD0AF}" name="Bought" totalsRowFunction="custom" dataDxfId="237" totalsRowDxfId="236">
       <totalsRowFormula>COUNTIF(Table217[Bought],"Yes") * 2</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{16801E44-9587-1F43-A05D-A6A621B7D92E}" name="Skilled" totalsRowFunction="custom" dataDxfId="210" totalsRowDxfId="209">
+    <tableColumn id="4" xr3:uid="{16801E44-9587-1F43-A05D-A6A621B7D92E}" name="Skilled" totalsRowFunction="custom" dataDxfId="235" totalsRowDxfId="234">
       <totalsRowFormula>COUNTIF(Table217[Skilled],"Yes") * 3</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{831CD727-7203-A442-90B2-7454C8FF3483}" name="Professional" totalsRowFunction="custom" dataDxfId="208" totalsRowDxfId="207">
+    <tableColumn id="5" xr3:uid="{831CD727-7203-A442-90B2-7454C8FF3483}" name="Professional" totalsRowFunction="custom" dataDxfId="233" totalsRowDxfId="232">
       <totalsRowFormula>COUNTIF(Table217[Professional],"Yes") * 4</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{29019F01-4B37-FD41-BF61-39E9F80E0220}" name="Expert" totalsRowFunction="custom" dataDxfId="206" totalsRowDxfId="205">
+    <tableColumn id="6" xr3:uid="{29019F01-4B37-FD41-BF61-39E9F80E0220}" name="Expert" totalsRowFunction="custom" dataDxfId="231" totalsRowDxfId="230">
       <totalsRowFormula>COUNTIF(Table217[Skilled],"Yes") * 5</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{9DA99A80-D4A2-7245-9FF6-F208EE342709}" name="DICE" dataDxfId="204" totalsRowDxfId="203">
+    <tableColumn id="8" xr3:uid="{9DA99A80-D4A2-7245-9FF6-F208EE342709}" name="DICE" dataDxfId="229" totalsRowDxfId="228">
       <calculatedColumnFormula>IF(C2="Yes","1d20","1d10")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{C3CB34DA-A904-9C4B-8C33-222761B6D7D2}" name="STAT" dataDxfId="202" totalsRowDxfId="201">
+    <tableColumn id="9" xr3:uid="{C3CB34DA-A904-9C4B-8C33-222761B6D7D2}" name="STAT" dataDxfId="227" totalsRowDxfId="226">
       <calculatedColumnFormula>IF(Table217[[#This Row],[Skilled]] = "YES",VLOOKUP(Table217[[#This Row],[Statistic]],Table1[[Code]:[STAT]],13,FALSE), 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{AA0D7124-EB80-8D45-8B3A-B710D5C942D2}" name="LEVEL" dataDxfId="200" totalsRowDxfId="199">
+    <tableColumn id="10" xr3:uid="{AA0D7124-EB80-8D45-8B3A-B710D5C942D2}" name="LEVEL" dataDxfId="225" totalsRowDxfId="224">
       <calculatedColumnFormula>IF(Table217[[#This Row],[Professional]]="Yes",LVL,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{6DA8214E-CFCE-1F48-9C1E-1466DBBCA419}" name="EXP." dataDxfId="198" totalsRowDxfId="197"/>
-    <tableColumn id="12" xr3:uid="{44A80818-EE79-AD41-B43E-D9EA1EB5457F}" name="TOTAL" dataDxfId="196" totalsRowDxfId="195">
+    <tableColumn id="11" xr3:uid="{6DA8214E-CFCE-1F48-9C1E-1466DBBCA419}" name="EXP." dataDxfId="223" totalsRowDxfId="222"/>
+    <tableColumn id="12" xr3:uid="{44A80818-EE79-AD41-B43E-D9EA1EB5457F}" name="TOTAL" dataDxfId="221" totalsRowDxfId="220">
       <calculatedColumnFormula>Table217[[#This Row],[DICE]] &amp; " " &amp; CHAR(43) &amp; " " &amp; SUM(H2:J2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7076,24 +7079,24 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{9BF8CF78-37C6-3445-BBF5-327B62B15019}" name="Table9" displayName="Table9" ref="A1:L20" totalsRowCount="1" headerRowDxfId="194" dataDxfId="193">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{9BF8CF78-37C6-3445-BBF5-327B62B15019}" name="Table9" displayName="Table9" ref="A1:L20" totalsRowCount="1" headerRowDxfId="219" dataDxfId="218">
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{AAE218F1-975D-6E4D-A78F-7D9CFE3F2D85}" name="Name" dataDxfId="192" totalsRowDxfId="191"/>
-    <tableColumn id="2" xr3:uid="{D6530EC6-244B-1342-B158-F1BF3AB28116}" name="Rank" dataDxfId="190" totalsRowDxfId="189"/>
-    <tableColumn id="3" xr3:uid="{06E3316B-0582-394A-BC3E-83FCA17E3605}" name="Weapon" dataDxfId="188" totalsRowDxfId="187"/>
-    <tableColumn id="12" xr3:uid="{DFE40438-CA22-3D44-8C0F-517F5D131F5B}" name="Equip." dataDxfId="186" totalsRowDxfId="185"/>
-    <tableColumn id="4" xr3:uid="{D4781ED7-4593-8541-BEFE-6294607C35A6}" name="Special" dataDxfId="184" totalsRowDxfId="183"/>
-    <tableColumn id="10" xr3:uid="{F3DF0F91-E598-724D-9337-DE5DFBDAB49E}" name="TotalRank" dataDxfId="182" totalsRowDxfId="181">
+    <tableColumn id="1" xr3:uid="{AAE218F1-975D-6E4D-A78F-7D9CFE3F2D85}" name="Name" dataDxfId="217" totalsRowDxfId="216"/>
+    <tableColumn id="2" xr3:uid="{D6530EC6-244B-1342-B158-F1BF3AB28116}" name="Rank" dataDxfId="215" totalsRowDxfId="214"/>
+    <tableColumn id="3" xr3:uid="{06E3316B-0582-394A-BC3E-83FCA17E3605}" name="Weapon" dataDxfId="213" totalsRowDxfId="212"/>
+    <tableColumn id="12" xr3:uid="{DFE40438-CA22-3D44-8C0F-517F5D131F5B}" name="Equip." dataDxfId="211" totalsRowDxfId="210"/>
+    <tableColumn id="4" xr3:uid="{D4781ED7-4593-8541-BEFE-6294607C35A6}" name="Special" dataDxfId="209" totalsRowDxfId="208"/>
+    <tableColumn id="10" xr3:uid="{F3DF0F91-E598-724D-9337-DE5DFBDAB49E}" name="TotalRank" dataDxfId="207" totalsRowDxfId="206">
       <calculatedColumnFormula>SUM(Table9[[#This Row],[Rank]:[Special]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{0D510646-E339-4D49-AC64-0E9893C8F3DB}" name="Factor" dataDxfId="180" totalsRowDxfId="179"/>
-    <tableColumn id="6" xr3:uid="{7B2CF3F3-396A-4840-8DAE-8804AB543E30}" name="Prefix" dataDxfId="178" totalsRowDxfId="177"/>
-    <tableColumn id="7" xr3:uid="{83E2A74F-B858-6946-B767-CA721DD0DE12}" name="Postfix" dataDxfId="176" totalsRowDxfId="175"/>
-    <tableColumn id="11" xr3:uid="{ADBF929F-A437-7A42-B5EE-CA1C4C9D4880}" name="CALC" dataDxfId="174" totalsRowDxfId="173"/>
-    <tableColumn id="8" xr3:uid="{0BF9FD32-BE0B-AC4D-B2C3-0AE1CD340401}" name="Result" dataDxfId="172" totalsRowDxfId="171">
+    <tableColumn id="5" xr3:uid="{0D510646-E339-4D49-AC64-0E9893C8F3DB}" name="Factor" dataDxfId="205" totalsRowDxfId="204"/>
+    <tableColumn id="6" xr3:uid="{7B2CF3F3-396A-4840-8DAE-8804AB543E30}" name="Prefix" dataDxfId="203" totalsRowDxfId="202"/>
+    <tableColumn id="7" xr3:uid="{83E2A74F-B858-6946-B767-CA721DD0DE12}" name="Postfix" dataDxfId="201" totalsRowDxfId="200"/>
+    <tableColumn id="11" xr3:uid="{ADBF929F-A437-7A42-B5EE-CA1C4C9D4880}" name="CALC" dataDxfId="199" totalsRowDxfId="198"/>
+    <tableColumn id="8" xr3:uid="{0BF9FD32-BE0B-AC4D-B2C3-0AE1CD340401}" name="Result" dataDxfId="197" totalsRowDxfId="196">
       <calculatedColumnFormula>Table9[[#This Row],[Prefix]] &amp; SUM(Table9[[#This Row],[Rank]:[Special]])*Table9[[#This Row],[Factor]] &amp; Table9[[#This Row],[Postfix]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{0D1C4892-DA2B-BC49-8BD4-B5FF578B67AD}" name="XP" totalsRowFunction="custom" dataDxfId="170" totalsRowDxfId="169">
+    <tableColumn id="9" xr3:uid="{0D1C4892-DA2B-BC49-8BD4-B5FF578B67AD}" name="XP" totalsRowFunction="custom" dataDxfId="195" totalsRowDxfId="194">
       <calculatedColumnFormula>IFERROR(VLOOKUP(Table9[[#This Row],[Rank]],RANK_LOOKUP,2,FALSE),0)</calculatedColumnFormula>
       <totalsRowFormula>SUM(Table9[XP])</totalsRowFormula>
     </tableColumn>
@@ -7103,145 +7106,145 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{AE27B7B0-F0E3-E243-8EFB-88A5ADED5F80}" name="Table12" displayName="Table12" ref="A2:V22" totalsRowCount="1" headerRowDxfId="168" dataDxfId="167">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{AE27B7B0-F0E3-E243-8EFB-88A5ADED5F80}" name="Table12" displayName="Table12" ref="A2:V22" totalsRowCount="1" headerRowDxfId="193" dataDxfId="192">
   <autoFilter ref="A2:V21" xr:uid="{B162921F-791F-624A-81ED-6E2D19AD3439}"/>
   <tableColumns count="22">
-    <tableColumn id="1" xr3:uid="{D6AFC6F4-56C5-B94E-AAD7-C07A92ACC04B}" name="Location" totalsRowLabel="Total" dataDxfId="166" totalsRowDxfId="165"/>
-    <tableColumn id="2" xr3:uid="{6EC0F666-8D61-D644-BCAC-A4117F1781F2}" name="Name" dataDxfId="164" totalsRowDxfId="163"/>
-    <tableColumn id="3" xr3:uid="{FDC3F4BD-A2FD-6648-8EE1-D8B4F6108857}" name="Enabled" dataDxfId="162" totalsRowDxfId="161"/>
-    <tableColumn id="4" xr3:uid="{6BD01D3C-E517-274F-87F1-974D9398BA72}" name="DMG" totalsRowFunction="custom" dataDxfId="160" totalsRowDxfId="159">
+    <tableColumn id="1" xr3:uid="{D6AFC6F4-56C5-B94E-AAD7-C07A92ACC04B}" name="Location" totalsRowLabel="Total" dataDxfId="191" totalsRowDxfId="190"/>
+    <tableColumn id="2" xr3:uid="{6EC0F666-8D61-D644-BCAC-A4117F1781F2}" name="Name" dataDxfId="189" totalsRowDxfId="188"/>
+    <tableColumn id="3" xr3:uid="{FDC3F4BD-A2FD-6648-8EE1-D8B4F6108857}" name="Enabled" dataDxfId="187" totalsRowDxfId="186"/>
+    <tableColumn id="4" xr3:uid="{6BD01D3C-E517-274F-87F1-974D9398BA72}" name="DMG" totalsRowFunction="custom" dataDxfId="185" totalsRowDxfId="184">
       <totalsRowFormula>SUMIF(Table12[Enabled],"Yes",Table12[DMG])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{1E15D738-D79A-244C-851E-E57C038AF8E0}" name="Stamina" totalsRowFunction="custom" dataDxfId="158" totalsRowDxfId="157">
+    <tableColumn id="5" xr3:uid="{1E15D738-D79A-244C-851E-E57C038AF8E0}" name="Stamina" totalsRowFunction="custom" dataDxfId="183" totalsRowDxfId="182">
       <totalsRowFormula>SUMIF(Table12[Enabled],"Yes",Table12[Stamina])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{4356B910-7F96-084F-A9BD-24B81A1D65C2}" name="Crit" totalsRowFunction="custom" dataDxfId="156" totalsRowDxfId="155">
+    <tableColumn id="6" xr3:uid="{4356B910-7F96-084F-A9BD-24B81A1D65C2}" name="Crit" totalsRowFunction="custom" dataDxfId="181" totalsRowDxfId="180">
       <totalsRowFormula>SUMIF(Table12[Enabled],"Yes",Table12[Stamina])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{34D53967-FE59-F548-9D59-EBF5A5FF3B80}" name="Crit DMG" totalsRowFunction="custom" dataDxfId="154" totalsRowDxfId="153">
+    <tableColumn id="7" xr3:uid="{34D53967-FE59-F548-9D59-EBF5A5FF3B80}" name="Crit DMG" totalsRowFunction="custom" dataDxfId="179" totalsRowDxfId="178">
       <totalsRowFormula>SUMIF(Table12[Enabled],"Yes",Table12[Crit DMG])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{D37EF853-D2F7-214A-83D0-086F59F00DC8}" name="Splash" totalsRowFunction="custom" dataDxfId="152" totalsRowDxfId="151">
+    <tableColumn id="8" xr3:uid="{D37EF853-D2F7-214A-83D0-086F59F00DC8}" name="Splash" totalsRowFunction="custom" dataDxfId="177" totalsRowDxfId="176">
       <totalsRowFormula>SUMIF(Table12[Enabled],"Yes",Table12[Splash])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{5DE5E55B-8076-214A-88F0-165C9D5589AB}" name="Splash _x000a_DMG" totalsRowFunction="custom" dataDxfId="150" totalsRowDxfId="149">
+    <tableColumn id="9" xr3:uid="{5DE5E55B-8076-214A-88F0-165C9D5589AB}" name="Splash _x000a_DMG" totalsRowFunction="custom" dataDxfId="175" totalsRowDxfId="174">
       <totalsRowFormula>SUMIF(Table12[Enabled],"Yes",Table12[Splash 
 DMG])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{1CB3B9C9-B073-D24E-A036-62CB1C097282}" name="Exprt." totalsRowFunction="custom" dataDxfId="148" totalsRowDxfId="147">
+    <tableColumn id="10" xr3:uid="{1CB3B9C9-B073-D24E-A036-62CB1C097282}" name="Exprt." totalsRowFunction="custom" dataDxfId="173" totalsRowDxfId="172">
       <totalsRowFormula>SUMIF(Table12[Enabled],"Yes",Table12[Exprt.])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{80F0809C-2100-2247-9ADB-01576F8CA19B}" name="Mvmt." totalsRowFunction="custom" dataDxfId="146" totalsRowDxfId="145">
+    <tableColumn id="11" xr3:uid="{80F0809C-2100-2247-9ADB-01576F8CA19B}" name="Mvmt." totalsRowFunction="custom" dataDxfId="171" totalsRowDxfId="170">
       <totalsRowFormula>SUMIF(Table12[Enabled],"Yes",Table12[Mvmt.])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{100B3365-5937-EA45-886B-E3DFD195C5B2}" name="Extra _x000a_Attack" totalsRowFunction="custom" dataDxfId="144" totalsRowDxfId="143">
+    <tableColumn id="12" xr3:uid="{100B3365-5937-EA45-886B-E3DFD195C5B2}" name="Extra _x000a_Attack" totalsRowFunction="custom" dataDxfId="169" totalsRowDxfId="168">
       <totalsRowFormula>SUMIF(Table12[Enabled],"Yes",Table12[Extra 
 Attack])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{5594E278-21E8-A14C-ADBC-E8B9C800F93B}" name="Armor" totalsRowFunction="custom" dataDxfId="142" totalsRowDxfId="141">
+    <tableColumn id="13" xr3:uid="{5594E278-21E8-A14C-ADBC-E8B9C800F93B}" name="Armor" totalsRowFunction="custom" dataDxfId="167" totalsRowDxfId="166">
       <totalsRowFormula>SUMIF(Table12[Enabled],"Yes",Table12[Armor])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{CB23327D-EFF8-A342-A9DE-65E1B7BC4BE3}" name="Aura" totalsRowFunction="custom" dataDxfId="140" totalsRowDxfId="139">
+    <tableColumn id="14" xr3:uid="{CB23327D-EFF8-A342-A9DE-65E1B7BC4BE3}" name="Aura" totalsRowFunction="custom" dataDxfId="165" totalsRowDxfId="164">
       <totalsRowFormula>SUMIF(Table12[Enabled],"Yes",Table12[Aura])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{B0438D6C-EBB6-7D45-9116-94CBEFB8D439}" name="Directed Strike" totalsRowFunction="custom" dataDxfId="138" totalsRowDxfId="137">
+    <tableColumn id="15" xr3:uid="{B0438D6C-EBB6-7D45-9116-94CBEFB8D439}" name="Directed Strike" totalsRowFunction="custom" dataDxfId="163" totalsRowDxfId="162">
       <totalsRowFormula>SUMIF(Table12[Enabled],"Yes",Table12[Directed Strike])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{0C0196AE-E23B-644F-8625-5FFF406E7239}" name="INI" totalsRowFunction="custom" dataDxfId="136" totalsRowDxfId="135">
+    <tableColumn id="16" xr3:uid="{0C0196AE-E23B-644F-8625-5FFF406E7239}" name="INI" totalsRowFunction="custom" dataDxfId="161" totalsRowDxfId="160">
       <totalsRowFormula>SUMIF(Table12[Enabled],"Yes",Table12[INI])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{0CE5E91F-F441-3541-ACBF-9B6E8F3D32BE}" name="STR" totalsRowFunction="custom" dataDxfId="134" totalsRowDxfId="133">
+    <tableColumn id="17" xr3:uid="{0CE5E91F-F441-3541-ACBF-9B6E8F3D32BE}" name="STR" totalsRowFunction="custom" dataDxfId="159" totalsRowDxfId="158">
       <totalsRowFormula>SUMIF(Table12[Enabled],"Yes",Table12[STR])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{CE0B6C3F-7775-4E44-8CAD-EB5E7ED373D8}" name="AGI" totalsRowFunction="custom" dataDxfId="132" totalsRowDxfId="131">
+    <tableColumn id="18" xr3:uid="{CE0B6C3F-7775-4E44-8CAD-EB5E7ED373D8}" name="AGI" totalsRowFunction="custom" dataDxfId="157" totalsRowDxfId="156">
       <totalsRowFormula>SUMIF(Table12[Enabled],"Yes",Table12[AGI])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{DD3C9C3F-31EB-7F48-83CE-9607AADE61CE}" name="INU" totalsRowFunction="custom" dataDxfId="130" totalsRowDxfId="129">
+    <tableColumn id="19" xr3:uid="{DD3C9C3F-31EB-7F48-83CE-9607AADE61CE}" name="INU" totalsRowFunction="custom" dataDxfId="155" totalsRowDxfId="154">
       <totalsRowFormula>SUMIF(Table12[Enabled],"Yes",Table12[INU])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{93C1F38D-CC0D-9F4E-AFB2-B3B60FA2E230}" name="CHA" totalsRowFunction="custom" dataDxfId="128" totalsRowDxfId="127">
+    <tableColumn id="20" xr3:uid="{93C1F38D-CC0D-9F4E-AFB2-B3B60FA2E230}" name="CHA" totalsRowFunction="custom" dataDxfId="153" totalsRowDxfId="152">
       <totalsRowFormula>SUMIF(Table12[Enabled],"Yes",Table12[CHA])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{86EE74A2-267E-5244-ADE0-325523D5DAF0}" name="PER" totalsRowFunction="custom" dataDxfId="126" totalsRowDxfId="125">
+    <tableColumn id="21" xr3:uid="{86EE74A2-267E-5244-ADE0-325523D5DAF0}" name="PER" totalsRowFunction="custom" dataDxfId="151" totalsRowDxfId="150">
       <totalsRowFormula>SUMIF(Table12[Enabled],"Yes",Table12[PER])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="23" xr3:uid="{DBC245A7-FD67-824A-B01B-CDA3F14F2832}" name="Description" dataDxfId="124" totalsRowDxfId="123"/>
+    <tableColumn id="23" xr3:uid="{DBC245A7-FD67-824A-B01B-CDA3F14F2832}" name="Description" dataDxfId="149" totalsRowDxfId="148"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{AF77A677-2D80-6443-A05D-655858194459}" name="Table1218" displayName="Table1218" ref="A2:AA22" totalsRowCount="1" headerRowDxfId="122" dataDxfId="121">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{AF77A677-2D80-6443-A05D-655858194459}" name="Table1218" displayName="Table1218" ref="A2:AA22" totalsRowCount="1" headerRowDxfId="147" dataDxfId="146">
   <autoFilter ref="A2:AA21" xr:uid="{B162921F-791F-624A-81ED-6E2D19AD3439}"/>
   <tableColumns count="27">
-    <tableColumn id="2" xr3:uid="{E56D130D-99FD-2946-944B-A51CABD832AC}" name="Name" dataDxfId="120" totalsRowDxfId="119"/>
-    <tableColumn id="3" xr3:uid="{BC699B2A-E436-DD44-83B3-3C0AAF24FC76}" name="Enabled" dataDxfId="118" totalsRowDxfId="117"/>
-    <tableColumn id="25" xr3:uid="{DE34C382-31A8-114A-B47A-484AE873AF1F}" name="Type" dataDxfId="116" totalsRowDxfId="115"/>
-    <tableColumn id="24" xr3:uid="{8B9165EA-408B-0644-BD6C-7AF334F6ACD8}" name="#" dataDxfId="114" totalsRowDxfId="113"/>
-    <tableColumn id="23" xr3:uid="{ECE39BFF-43E4-2240-9FE3-1B3C6A2CD436}" name="Dice" dataDxfId="112" totalsRowDxfId="111"/>
-    <tableColumn id="26" xr3:uid="{3AA6F904-F0B0-9449-8DDC-3027E3A4BE30}" name="Constant" dataDxfId="110" totalsRowDxfId="109"/>
-    <tableColumn id="22" xr3:uid="{E209AE0C-255B-2449-B26F-DEE2F0E8CF23}" name="INI" dataDxfId="108" totalsRowDxfId="107"/>
-    <tableColumn id="4" xr3:uid="{B47ADA7A-75BF-8845-B1F4-51CE35E67214}" name="DMG" totalsRowFunction="custom" dataDxfId="106" totalsRowDxfId="105">
+    <tableColumn id="2" xr3:uid="{E56D130D-99FD-2946-944B-A51CABD832AC}" name="Name" dataDxfId="145" totalsRowDxfId="144"/>
+    <tableColumn id="3" xr3:uid="{BC699B2A-E436-DD44-83B3-3C0AAF24FC76}" name="Enabled" dataDxfId="143" totalsRowDxfId="142"/>
+    <tableColumn id="25" xr3:uid="{DE34C382-31A8-114A-B47A-484AE873AF1F}" name="Type" dataDxfId="141" totalsRowDxfId="140"/>
+    <tableColumn id="24" xr3:uid="{8B9165EA-408B-0644-BD6C-7AF334F6ACD8}" name="#" dataDxfId="139" totalsRowDxfId="138"/>
+    <tableColumn id="23" xr3:uid="{ECE39BFF-43E4-2240-9FE3-1B3C6A2CD436}" name="Dice" dataDxfId="137" totalsRowDxfId="136"/>
+    <tableColumn id="26" xr3:uid="{3AA6F904-F0B0-9449-8DDC-3027E3A4BE30}" name="Constant" dataDxfId="135" totalsRowDxfId="134"/>
+    <tableColumn id="22" xr3:uid="{E209AE0C-255B-2449-B26F-DEE2F0E8CF23}" name="INI" dataDxfId="133" totalsRowDxfId="132"/>
+    <tableColumn id="4" xr3:uid="{B47ADA7A-75BF-8845-B1F4-51CE35E67214}" name="DMG" totalsRowFunction="custom" dataDxfId="131" totalsRowDxfId="130">
       <totalsRowFormula>SUMIF(Table1218[Enabled],"Yes",Table1218[DMG])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{A56869D3-EF92-704B-9000-BD3D1B486A75}" name="Stamina" totalsRowFunction="custom" dataDxfId="104" totalsRowDxfId="103">
+    <tableColumn id="5" xr3:uid="{A56869D3-EF92-704B-9000-BD3D1B486A75}" name="Stamina" totalsRowFunction="custom" dataDxfId="129" totalsRowDxfId="128">
       <totalsRowFormula>SUMIF(Table1218[Enabled],"Yes",Table1218[Stamina])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{4399BDD2-0759-9445-AC6C-05B3B499C492}" name="Crit" totalsRowFunction="custom" dataDxfId="102" totalsRowDxfId="101">
+    <tableColumn id="6" xr3:uid="{4399BDD2-0759-9445-AC6C-05B3B499C492}" name="Crit" totalsRowFunction="custom" dataDxfId="127" totalsRowDxfId="126">
       <totalsRowFormula>SUMIF(Table1218[Enabled],"Yes",Table1218[Crit])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{D6B38714-0E9C-D649-BFE5-49596BA9BF1C}" name="Crit DMG" totalsRowFunction="custom" dataDxfId="100" totalsRowDxfId="99">
+    <tableColumn id="7" xr3:uid="{D6B38714-0E9C-D649-BFE5-49596BA9BF1C}" name="Crit DMG" totalsRowFunction="custom" dataDxfId="125" totalsRowDxfId="124">
       <totalsRowFormula>SUMIF(Table1218[Enabled],"Yes",Table1218[Crit DMG])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{9519CA17-112B-224B-952F-51AC027496F6}" name="Splash" totalsRowFunction="custom" dataDxfId="98" totalsRowDxfId="97">
+    <tableColumn id="8" xr3:uid="{9519CA17-112B-224B-952F-51AC027496F6}" name="Splash" totalsRowFunction="custom" dataDxfId="123" totalsRowDxfId="122">
       <totalsRowFormula>SUMIF(Table1218[Enabled],"Yes",Table1218[Splash])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{429CA498-92FA-A74E-BC4B-6663D9D8CABA}" name="Splash _x000a_DMG" totalsRowFunction="custom" dataDxfId="96" totalsRowDxfId="95">
+    <tableColumn id="9" xr3:uid="{429CA498-92FA-A74E-BC4B-6663D9D8CABA}" name="Splash _x000a_DMG" totalsRowFunction="custom" dataDxfId="121" totalsRowDxfId="120">
       <totalsRowFormula>SUMIF(Table1218[Enabled],"Yes",Table1218[Splash 
 DMG])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{37D7FA16-18E2-6842-926B-EFE8BBF1B1DF}" name="Exprt." totalsRowFunction="custom" dataDxfId="94" totalsRowDxfId="93">
+    <tableColumn id="10" xr3:uid="{37D7FA16-18E2-6842-926B-EFE8BBF1B1DF}" name="Exprt." totalsRowFunction="custom" dataDxfId="119" totalsRowDxfId="118">
       <totalsRowFormula>SUMIF(Table1218[Enabled],"Yes",Table1218[Exprt.])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{25A44E44-0A05-AC4D-8AB4-EE74A0BFFAED}" name="Mvmt." totalsRowFunction="custom" dataDxfId="92" totalsRowDxfId="91">
+    <tableColumn id="11" xr3:uid="{25A44E44-0A05-AC4D-8AB4-EE74A0BFFAED}" name="Mvmt." totalsRowFunction="custom" dataDxfId="117" totalsRowDxfId="116">
       <totalsRowFormula>SUMIF(Table1218[Enabled],"Yes",Table1218[Mvmt.])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{9162589E-4452-B14F-84BF-BA8ADF153104}" name="Extra _x000a_Attack" totalsRowFunction="custom" dataDxfId="90" totalsRowDxfId="89">
+    <tableColumn id="12" xr3:uid="{9162589E-4452-B14F-84BF-BA8ADF153104}" name="Extra _x000a_Attack" totalsRowFunction="custom" dataDxfId="115" totalsRowDxfId="114">
       <totalsRowFormula>SUMIF(Table1218[Enabled],"Yes",Table1218[Extra 
 Attack])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{76EB8C7B-5213-1A46-B243-DA8120143C97}" name="Armor" totalsRowFunction="custom" dataDxfId="88" totalsRowDxfId="87">
+    <tableColumn id="13" xr3:uid="{76EB8C7B-5213-1A46-B243-DA8120143C97}" name="Armor" totalsRowFunction="custom" dataDxfId="113" totalsRowDxfId="112">
       <totalsRowFormula>SUMIF(Table1218[Enabled],"Yes",Table1218[Armor])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{7694EA49-563E-1E43-AAAE-55BA11A1C48C}" name="Aura" totalsRowFunction="custom" dataDxfId="86" totalsRowDxfId="85">
+    <tableColumn id="14" xr3:uid="{7694EA49-563E-1E43-AAAE-55BA11A1C48C}" name="Aura" totalsRowFunction="custom" dataDxfId="111" totalsRowDxfId="110">
       <totalsRowFormula>SUMIF(Table1218[Enabled],"Yes",Table1218[Aura])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{8C961621-41FF-2948-9B22-39E0CDEE8A7E}" name="Directed Strike" totalsRowFunction="custom" dataDxfId="84" totalsRowDxfId="83">
+    <tableColumn id="15" xr3:uid="{8C961621-41FF-2948-9B22-39E0CDEE8A7E}" name="Directed Strike" totalsRowFunction="custom" dataDxfId="109" totalsRowDxfId="108">
       <totalsRowFormula>SUMIF(Table1218[Enabled],"Yes",Table1218[Directed Strike])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{7A2D1CD4-98D1-6F4E-B0A1-5BF54AE2F9B7}" name="AP" totalsRowFunction="custom" dataDxfId="82" totalsRowDxfId="81">
+    <tableColumn id="1" xr3:uid="{7A2D1CD4-98D1-6F4E-B0A1-5BF54AE2F9B7}" name="AP" totalsRowFunction="custom" dataDxfId="107" totalsRowDxfId="106">
       <totalsRowFormula>SUMIF(Table1218[Enabled],"Yes",Table1218[AP])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{C1A5919F-5B4B-C442-8BBB-F57C37FB2FEE}" name="INI2" totalsRowFunction="custom" dataDxfId="80" totalsRowDxfId="79">
+    <tableColumn id="16" xr3:uid="{C1A5919F-5B4B-C442-8BBB-F57C37FB2FEE}" name="INI2" totalsRowFunction="custom" dataDxfId="105" totalsRowDxfId="104">
       <totalsRowFormula>SUMIF(Table1218[Enabled],"Yes",Table1218[INI2])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{93F7A8DA-DC28-864F-8239-7E93AD5F7188}" name="STR" totalsRowFunction="custom" dataDxfId="78" totalsRowDxfId="77">
+    <tableColumn id="17" xr3:uid="{93F7A8DA-DC28-864F-8239-7E93AD5F7188}" name="STR" totalsRowFunction="custom" dataDxfId="103" totalsRowDxfId="102">
       <totalsRowFormula>SUMIF(Table1218[Enabled],"Yes",Table1218[STR])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{5E33A6F3-45E5-B14F-8A37-AE470CDA5006}" name="AGI" totalsRowFunction="custom" dataDxfId="76" totalsRowDxfId="75">
+    <tableColumn id="18" xr3:uid="{5E33A6F3-45E5-B14F-8A37-AE470CDA5006}" name="AGI" totalsRowFunction="custom" dataDxfId="101" totalsRowDxfId="100">
       <totalsRowFormula>SUMIF(Table1218[Enabled],"Yes",Table1218[AGI])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{47674090-5365-2D4F-B2B6-FA5831CE6013}" name="INU" totalsRowFunction="custom" dataDxfId="74" totalsRowDxfId="73">
+    <tableColumn id="19" xr3:uid="{47674090-5365-2D4F-B2B6-FA5831CE6013}" name="INU" totalsRowFunction="custom" dataDxfId="99" totalsRowDxfId="98">
       <totalsRowFormula>SUMIF(Table1218[Enabled],"Yes",Table1218[INU])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{180A191A-7E92-F146-BDD6-AFE6A0673A36}" name="CHA" totalsRowFunction="custom" dataDxfId="72" totalsRowDxfId="71">
+    <tableColumn id="20" xr3:uid="{180A191A-7E92-F146-BDD6-AFE6A0673A36}" name="CHA" totalsRowFunction="custom" dataDxfId="97" totalsRowDxfId="96">
       <totalsRowFormula>SUMIF(Table1218[Enabled],"Yes",Table1218[CHA])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{66B45B9E-7117-9F4B-9D86-B2A72231074D}" name="PER" totalsRowFunction="custom" dataDxfId="70" totalsRowDxfId="69">
+    <tableColumn id="21" xr3:uid="{66B45B9E-7117-9F4B-9D86-B2A72231074D}" name="PER" totalsRowFunction="custom" dataDxfId="95" totalsRowDxfId="94">
       <totalsRowFormula>SUMIF(Table1218[Enabled],"Yes",Table1218[PER])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="27" xr3:uid="{D8540632-FC51-0D4F-8B9C-2BD5CF3D48BD}" name="Result" dataDxfId="68" totalsRowDxfId="67">
+    <tableColumn id="27" xr3:uid="{D8540632-FC51-0D4F-8B9C-2BD5CF3D48BD}" name="Result" dataDxfId="93" totalsRowDxfId="92">
       <calculatedColumnFormula>Table1218[[#This Row],[Name]] &amp; ": " &amp; Table1218[[#This Row],['#]] &amp; "d" &amp; Table1218[[#This Row],[Dice]] &amp; "+" &amp; Table1218[[#This Row],[Constant]] &amp; "+" &amp; IF(Table1218[[#This Row],[Type]]="Melee",STR, 0) + IF(Table1218[[#This Row],[Type]]="Ranged",AGI, 0) + IF(Table1218[[#This Row],[Type]]="Magic",INU,0) &amp; FEAT_DMG &amp; "  INI:" &amp; Table1218[[#This Row],[INI]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7250,7 +7253,7 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{A3546F50-DAF2-5C48-8B21-E1774EDED48A}" name="Table18" displayName="Table18" ref="A1:G39" totalsRowCount="1" dataDxfId="66">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{A3546F50-DAF2-5C48-8B21-E1774EDED48A}" name="Table18" displayName="Table18" ref="A1:G39" totalsRowCount="1" dataDxfId="91">
   <autoFilter ref="A1:G38" xr:uid="{AB73435D-1DA5-9D4D-A3C2-6FDD431734AF}">
     <filterColumn colId="4">
       <filters>
@@ -7259,42 +7262,42 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{D3222AC0-22D0-884F-9ACB-057509AFE854}" name="Name" totalsRowLabel="Total" dataDxfId="65"/>
-    <tableColumn id="2" xr3:uid="{599153C8-C04F-1E43-B915-4EFDDAA10575}" name="Type" dataDxfId="64"/>
-    <tableColumn id="3" xr3:uid="{EDEC5936-D857-284D-9D36-956AFDD7675E}" name="Rank" dataDxfId="63"/>
-    <tableColumn id="4" xr3:uid="{82D28D72-C87E-9B4A-8903-1B6710B17B31}" name="Level" dataDxfId="62"/>
-    <tableColumn id="7" xr3:uid="{5BDFB085-66F9-084D-91F0-257513610F8E}" name="Enabled" dataDxfId="61"/>
-    <tableColumn id="5" xr3:uid="{DEE6DAA2-9721-9744-96FC-C77D47077D88}" name="XP" totalsRowFunction="custom" dataDxfId="60" totalsRowDxfId="59">
+    <tableColumn id="1" xr3:uid="{D3222AC0-22D0-884F-9ACB-057509AFE854}" name="Name" totalsRowLabel="Total" dataDxfId="90"/>
+    <tableColumn id="2" xr3:uid="{599153C8-C04F-1E43-B915-4EFDDAA10575}" name="Type" dataDxfId="89"/>
+    <tableColumn id="3" xr3:uid="{EDEC5936-D857-284D-9D36-956AFDD7675E}" name="Rank" dataDxfId="88"/>
+    <tableColumn id="4" xr3:uid="{82D28D72-C87E-9B4A-8903-1B6710B17B31}" name="Level" dataDxfId="87"/>
+    <tableColumn id="7" xr3:uid="{5BDFB085-66F9-084D-91F0-257513610F8E}" name="Enabled" dataDxfId="86"/>
+    <tableColumn id="5" xr3:uid="{DEE6DAA2-9721-9744-96FC-C77D47077D88}" name="XP" totalsRowFunction="custom" dataDxfId="85" totalsRowDxfId="84">
       <totalsRowFormula>SUMIF(Table18[Enabled],"=Yes",Table18[XP])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{6625A40C-80FB-224A-BEEB-A3A7B1CB18A8}" name="Description" dataDxfId="58"/>
+    <tableColumn id="6" xr3:uid="{6625A40C-80FB-224A-BEEB-A3A7B1CB18A8}" name="Description" dataDxfId="83"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B2E8E73B-2220-B14A-B34D-B2A2D31C87D8}" name="Table79" displayName="Table79" ref="A1:R33" totalsRowShown="0" headerRowDxfId="57" dataDxfId="56">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B2E8E73B-2220-B14A-B34D-B2A2D31C87D8}" name="Table79" displayName="Table79" ref="A1:R33" totalsRowShown="0" headerRowDxfId="82" dataDxfId="81">
   <autoFilter ref="A1:R33" xr:uid="{9A133D1A-1408-9A4D-B1A8-016FBFDDF397}"/>
   <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{8A7DFF72-A39A-0242-878A-A43522EFE24F}" name="Name" dataDxfId="55"/>
-    <tableColumn id="2" xr3:uid="{1E867DD1-2259-0F42-8DE6-24E3B57FB023}" name="STR" dataDxfId="54"/>
-    <tableColumn id="3" xr3:uid="{8B62FCC6-44AF-3745-9B75-FB2CB998E35C}" name="AGI" dataDxfId="53"/>
-    <tableColumn id="4" xr3:uid="{A2E15CA6-9E2A-1344-A6EF-BEDA148248DE}" name="INU" dataDxfId="52"/>
-    <tableColumn id="18" xr3:uid="{403E2468-C5FB-E940-8CC9-FA9C085C6CA2}" name="CHA" dataDxfId="51"/>
-    <tableColumn id="5" xr3:uid="{6997B2AE-7002-964B-8C6B-EF465FAF82EA}" name="PER" dataDxfId="50"/>
-    <tableColumn id="6" xr3:uid="{052C7C9D-EB8C-4640-8FD3-30EDB4571A40}" name="HP Factor" dataDxfId="49"/>
-    <tableColumn id="7" xr3:uid="{CB645AD0-0F06-3B43-B1B3-E6D435FC9BBC}" name="XP" dataDxfId="48"/>
-    <tableColumn id="8" xr3:uid="{187B0803-25C6-8643-B93A-30A61D579311}" name="Column2" dataDxfId="47"/>
-    <tableColumn id="9" xr3:uid="{D5FA0FDA-C465-914B-9F10-275BED958455}" name="Column3" dataDxfId="46"/>
-    <tableColumn id="10" xr3:uid="{E91B6F4A-B437-F54C-B449-1103036C5B36}" name="Column4" dataDxfId="45"/>
-    <tableColumn id="11" xr3:uid="{916C933F-3F60-A640-86EB-CA547F95B9D7}" name="Column5" dataDxfId="44"/>
-    <tableColumn id="12" xr3:uid="{C2E89ECD-3CE6-DF4A-8BED-C99396B26E38}" name="Column6" dataDxfId="43"/>
-    <tableColumn id="13" xr3:uid="{584B2452-4E2B-914C-AEF2-657C6BD496DB}" name="Column7" dataDxfId="42"/>
-    <tableColumn id="14" xr3:uid="{ACFF4731-2977-724C-BEA0-BF0E750D4D37}" name="Column8" dataDxfId="41"/>
-    <tableColumn id="15" xr3:uid="{13FA1501-6896-C04C-AC18-9E866978A015}" name="Column9" dataDxfId="40"/>
-    <tableColumn id="16" xr3:uid="{8673696E-720C-DF47-836C-C07175E535C6}" name="Column10" dataDxfId="39"/>
-    <tableColumn id="17" xr3:uid="{2177733D-A9EC-574A-81A2-DCB7E8D34927}" name="Column11" dataDxfId="38"/>
+    <tableColumn id="1" xr3:uid="{8A7DFF72-A39A-0242-878A-A43522EFE24F}" name="Name" dataDxfId="80"/>
+    <tableColumn id="2" xr3:uid="{1E867DD1-2259-0F42-8DE6-24E3B57FB023}" name="STR" dataDxfId="79"/>
+    <tableColumn id="3" xr3:uid="{8B62FCC6-44AF-3745-9B75-FB2CB998E35C}" name="AGI" dataDxfId="78"/>
+    <tableColumn id="4" xr3:uid="{A2E15CA6-9E2A-1344-A6EF-BEDA148248DE}" name="INU" dataDxfId="77"/>
+    <tableColumn id="18" xr3:uid="{403E2468-C5FB-E940-8CC9-FA9C085C6CA2}" name="CHA" dataDxfId="76"/>
+    <tableColumn id="5" xr3:uid="{6997B2AE-7002-964B-8C6B-EF465FAF82EA}" name="PER" dataDxfId="75"/>
+    <tableColumn id="6" xr3:uid="{052C7C9D-EB8C-4640-8FD3-30EDB4571A40}" name="HP Factor" dataDxfId="74"/>
+    <tableColumn id="7" xr3:uid="{CB645AD0-0F06-3B43-B1B3-E6D435FC9BBC}" name="XP" dataDxfId="73"/>
+    <tableColumn id="8" xr3:uid="{187B0803-25C6-8643-B93A-30A61D579311}" name="Column2" dataDxfId="72"/>
+    <tableColumn id="9" xr3:uid="{D5FA0FDA-C465-914B-9F10-275BED958455}" name="Column3" dataDxfId="71"/>
+    <tableColumn id="10" xr3:uid="{E91B6F4A-B437-F54C-B449-1103036C5B36}" name="Column4" dataDxfId="70"/>
+    <tableColumn id="11" xr3:uid="{916C933F-3F60-A640-86EB-CA547F95B9D7}" name="Column5" dataDxfId="69"/>
+    <tableColumn id="12" xr3:uid="{C2E89ECD-3CE6-DF4A-8BED-C99396B26E38}" name="Column6" dataDxfId="68"/>
+    <tableColumn id="13" xr3:uid="{584B2452-4E2B-914C-AEF2-657C6BD496DB}" name="Column7" dataDxfId="67"/>
+    <tableColumn id="14" xr3:uid="{ACFF4731-2977-724C-BEA0-BF0E750D4D37}" name="Column8" dataDxfId="66"/>
+    <tableColumn id="15" xr3:uid="{13FA1501-6896-C04C-AC18-9E866978A015}" name="Column9" dataDxfId="65"/>
+    <tableColumn id="16" xr3:uid="{8673696E-720C-DF47-836C-C07175E535C6}" name="Column10" dataDxfId="64"/>
+    <tableColumn id="17" xr3:uid="{2177733D-A9EC-574A-81A2-DCB7E8D34927}" name="Column11" dataDxfId="63"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7600,8 +7603,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:BG295"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="BB39" sqref="BB39"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="AV41" sqref="AV41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7615,144 +7618,144 @@
   <sheetData>
     <row r="1" spans="2:57" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:57" ht="10" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="108" t="str">
+      <c r="B2" s="111" t="str">
         <f>CHARACTER_NAME</f>
-        <v>Unknown</v>
-      </c>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="108"/>
-      <c r="I2" s="108"/>
-      <c r="J2" s="108"/>
-      <c r="K2" s="108"/>
-      <c r="L2" s="108"/>
-      <c r="M2" s="108"/>
-      <c r="N2" s="108"/>
-      <c r="O2" s="108"/>
-      <c r="S2" s="103" t="str">
+        <v>Kuifje</v>
+      </c>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="111"/>
+      <c r="S2" s="109" t="str">
         <f>CHARACTER_RACE</f>
         <v>Indir</v>
       </c>
-      <c r="T2" s="103"/>
-      <c r="U2" s="103"/>
-      <c r="V2" s="103"/>
-      <c r="W2" s="103"/>
-      <c r="X2" s="103"/>
-      <c r="Y2" s="103"/>
-      <c r="Z2" s="103"/>
-      <c r="AB2" s="103" t="str">
+      <c r="T2" s="109"/>
+      <c r="U2" s="109"/>
+      <c r="V2" s="109"/>
+      <c r="W2" s="109"/>
+      <c r="X2" s="109"/>
+      <c r="Y2" s="109"/>
+      <c r="Z2" s="109"/>
+      <c r="AB2" s="109" t="str">
         <f>CHARACTER_PROFESSION</f>
         <v>Arcane Warrior</v>
       </c>
-      <c r="AC2" s="103"/>
-      <c r="AD2" s="103"/>
-      <c r="AE2" s="103"/>
-      <c r="AF2" s="103"/>
-      <c r="AG2" s="103"/>
-      <c r="AH2" s="103"/>
-      <c r="AI2" s="103"/>
-      <c r="AN2" s="116">
+      <c r="AC2" s="109"/>
+      <c r="AD2" s="109"/>
+      <c r="AE2" s="109"/>
+      <c r="AF2" s="109"/>
+      <c r="AG2" s="109"/>
+      <c r="AH2" s="109"/>
+      <c r="AI2" s="109"/>
+      <c r="AN2" s="100">
         <f>TOTAL_XP</f>
         <v>80</v>
       </c>
-      <c r="AO2" s="116"/>
-      <c r="AP2" s="116"/>
-      <c r="AQ2" s="116"/>
-      <c r="AS2" s="116">
+      <c r="AO2" s="100"/>
+      <c r="AP2" s="100"/>
+      <c r="AQ2" s="100"/>
+      <c r="AS2" s="100">
         <f>LVL</f>
         <v>5</v>
       </c>
-      <c r="AT2" s="116"/>
-      <c r="AU2" s="116"/>
-      <c r="AV2" s="116"/>
+      <c r="AT2" s="100"/>
+      <c r="AU2" s="100"/>
+      <c r="AV2" s="100"/>
       <c r="BE2" s="47"/>
     </row>
     <row r="3" spans="2:57" ht="10" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="108"/>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
-      <c r="F3" s="108"/>
-      <c r="G3" s="108"/>
-      <c r="H3" s="108"/>
-      <c r="I3" s="108"/>
-      <c r="J3" s="108"/>
-      <c r="K3" s="108"/>
-      <c r="L3" s="108"/>
-      <c r="M3" s="108"/>
-      <c r="N3" s="108"/>
-      <c r="O3" s="108"/>
-      <c r="S3" s="104"/>
-      <c r="T3" s="104"/>
-      <c r="U3" s="104"/>
-      <c r="V3" s="104"/>
-      <c r="W3" s="104"/>
-      <c r="X3" s="104"/>
-      <c r="Y3" s="104"/>
-      <c r="Z3" s="104"/>
-      <c r="AB3" s="104"/>
-      <c r="AC3" s="104"/>
-      <c r="AD3" s="104"/>
-      <c r="AE3" s="104"/>
-      <c r="AF3" s="104"/>
-      <c r="AG3" s="104"/>
-      <c r="AH3" s="104"/>
-      <c r="AI3" s="104"/>
-      <c r="AN3" s="116"/>
-      <c r="AO3" s="116"/>
-      <c r="AP3" s="116"/>
-      <c r="AQ3" s="116"/>
-      <c r="AS3" s="116"/>
-      <c r="AT3" s="116"/>
-      <c r="AU3" s="116"/>
-      <c r="AV3" s="116"/>
+      <c r="B3" s="111"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="111"/>
+      <c r="L3" s="111"/>
+      <c r="M3" s="111"/>
+      <c r="N3" s="111"/>
+      <c r="O3" s="111"/>
+      <c r="S3" s="110"/>
+      <c r="T3" s="110"/>
+      <c r="U3" s="110"/>
+      <c r="V3" s="110"/>
+      <c r="W3" s="110"/>
+      <c r="X3" s="110"/>
+      <c r="Y3" s="110"/>
+      <c r="Z3" s="110"/>
+      <c r="AB3" s="110"/>
+      <c r="AC3" s="110"/>
+      <c r="AD3" s="110"/>
+      <c r="AE3" s="110"/>
+      <c r="AF3" s="110"/>
+      <c r="AG3" s="110"/>
+      <c r="AH3" s="110"/>
+      <c r="AI3" s="110"/>
+      <c r="AN3" s="100"/>
+      <c r="AO3" s="100"/>
+      <c r="AP3" s="100"/>
+      <c r="AQ3" s="100"/>
+      <c r="AS3" s="100"/>
+      <c r="AT3" s="100"/>
+      <c r="AU3" s="100"/>
+      <c r="AV3" s="100"/>
     </row>
     <row r="4" spans="2:57" ht="10" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="108"/>
-      <c r="C4" s="108"/>
-      <c r="D4" s="108"/>
-      <c r="E4" s="108"/>
-      <c r="F4" s="108"/>
-      <c r="G4" s="108"/>
-      <c r="H4" s="108"/>
-      <c r="I4" s="108"/>
-      <c r="J4" s="108"/>
-      <c r="K4" s="108"/>
-      <c r="L4" s="108"/>
-      <c r="M4" s="108"/>
-      <c r="N4" s="108"/>
-      <c r="O4" s="108"/>
+      <c r="B4" s="111"/>
+      <c r="C4" s="111"/>
+      <c r="D4" s="111"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="111"/>
+      <c r="G4" s="111"/>
+      <c r="H4" s="111"/>
+      <c r="I4" s="111"/>
+      <c r="J4" s="111"/>
+      <c r="K4" s="111"/>
+      <c r="L4" s="111"/>
+      <c r="M4" s="111"/>
+      <c r="N4" s="111"/>
+      <c r="O4" s="111"/>
       <c r="S4" s="36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Z4" s="30"/>
       <c r="AB4" s="36" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AI4" s="30"/>
       <c r="AJ4" s="31"/>
       <c r="AK4" s="31"/>
       <c r="AL4" s="31"/>
       <c r="AM4" s="31"/>
-      <c r="AN4" s="116"/>
-      <c r="AO4" s="116"/>
-      <c r="AP4" s="116"/>
-      <c r="AQ4" s="116"/>
+      <c r="AN4" s="100"/>
+      <c r="AO4" s="100"/>
+      <c r="AP4" s="100"/>
+      <c r="AQ4" s="100"/>
       <c r="AR4" s="31"/>
-      <c r="AS4" s="116"/>
-      <c r="AT4" s="116"/>
-      <c r="AU4" s="116"/>
-      <c r="AV4" s="116"/>
+      <c r="AS4" s="100"/>
+      <c r="AT4" s="100"/>
+      <c r="AU4" s="100"/>
+      <c r="AV4" s="100"/>
     </row>
     <row r="5" spans="2:57" ht="10" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="109"/>
-      <c r="C5" s="109"/>
+      <c r="B5" s="115"/>
+      <c r="C5" s="115"/>
       <c r="D5" s="32"/>
-      <c r="E5" s="109"/>
-      <c r="F5" s="109"/>
+      <c r="E5" s="115"/>
+      <c r="F5" s="115"/>
       <c r="Z5" s="30"/>
       <c r="AB5" s="31"/>
       <c r="AC5" s="31"/>
@@ -7766,31 +7769,31 @@
       <c r="AK5" s="31"/>
       <c r="AL5" s="31"/>
       <c r="AM5" s="31"/>
-      <c r="AN5" s="117"/>
-      <c r="AO5" s="117"/>
-      <c r="AP5" s="117"/>
-      <c r="AQ5" s="117"/>
+      <c r="AN5" s="101"/>
+      <c r="AO5" s="101"/>
+      <c r="AP5" s="101"/>
+      <c r="AQ5" s="101"/>
       <c r="AR5" s="31"/>
-      <c r="AS5" s="117"/>
-      <c r="AT5" s="117"/>
-      <c r="AU5" s="117"/>
-      <c r="AV5" s="117"/>
+      <c r="AS5" s="101"/>
+      <c r="AT5" s="101"/>
+      <c r="AU5" s="101"/>
+      <c r="AV5" s="101"/>
     </row>
     <row r="6" spans="2:57" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F6" s="32"/>
-      <c r="AN6" s="118" t="s">
-        <v>52</v>
-      </c>
-      <c r="AO6" s="118"/>
-      <c r="AP6" s="118"/>
-      <c r="AQ6" s="118"/>
+      <c r="AN6" s="102" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO6" s="102"/>
+      <c r="AP6" s="102"/>
+      <c r="AQ6" s="102"/>
       <c r="AR6" s="31"/>
-      <c r="AS6" s="118" t="s">
-        <v>41</v>
-      </c>
-      <c r="AT6" s="118"/>
-      <c r="AU6" s="118"/>
-      <c r="AV6" s="118"/>
+      <c r="AS6" s="102" t="s">
+        <v>40</v>
+      </c>
+      <c r="AT6" s="102"/>
+      <c r="AU6" s="102"/>
+      <c r="AV6" s="102"/>
     </row>
     <row r="7" spans="2:57" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F7" s="32"/>
@@ -7801,223 +7804,223 @@
       <c r="AT7" s="31"/>
     </row>
     <row r="8" spans="2:57" ht="10" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="95" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="96"/>
-      <c r="D8" s="96"/>
-      <c r="E8" s="97"/>
+      <c r="B8" s="112" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="113"/>
+      <c r="D8" s="113"/>
+      <c r="E8" s="114"/>
       <c r="F8" s="32"/>
-      <c r="H8" s="105" t="s">
-        <v>101</v>
-      </c>
-      <c r="I8" s="106"/>
-      <c r="J8" s="106"/>
-      <c r="K8" s="107"/>
-      <c r="M8" s="105" t="s">
+      <c r="H8" s="103" t="s">
+        <v>100</v>
+      </c>
+      <c r="I8" s="104"/>
+      <c r="J8" s="104"/>
+      <c r="K8" s="105"/>
+      <c r="M8" s="103" t="s">
+        <v>120</v>
+      </c>
+      <c r="N8" s="104"/>
+      <c r="O8" s="104"/>
+      <c r="P8" s="105"/>
+      <c r="R8" s="103" t="s">
         <v>121</v>
       </c>
-      <c r="N8" s="106"/>
-      <c r="O8" s="106"/>
-      <c r="P8" s="107"/>
-      <c r="R8" s="105" t="s">
-        <v>122</v>
-      </c>
-      <c r="S8" s="106"/>
-      <c r="T8" s="106"/>
-      <c r="U8" s="107"/>
-      <c r="W8" s="105" t="s">
-        <v>69</v>
-      </c>
-      <c r="X8" s="106"/>
-      <c r="Y8" s="106"/>
-      <c r="Z8" s="107"/>
-      <c r="AB8" s="105" t="s">
-        <v>118</v>
-      </c>
-      <c r="AC8" s="106"/>
-      <c r="AD8" s="106"/>
-      <c r="AE8" s="107"/>
+      <c r="S8" s="104"/>
+      <c r="T8" s="104"/>
+      <c r="U8" s="105"/>
+      <c r="W8" s="103" t="s">
+        <v>68</v>
+      </c>
+      <c r="X8" s="104"/>
+      <c r="Y8" s="104"/>
+      <c r="Z8" s="105"/>
+      <c r="AB8" s="103" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC8" s="104"/>
+      <c r="AD8" s="104"/>
+      <c r="AE8" s="105"/>
       <c r="AF8" s="31"/>
-      <c r="AG8" s="105" t="s">
-        <v>206</v>
-      </c>
-      <c r="AH8" s="106"/>
-      <c r="AI8" s="106"/>
-      <c r="AJ8" s="107"/>
+      <c r="AG8" s="103" t="s">
+        <v>205</v>
+      </c>
+      <c r="AH8" s="104"/>
+      <c r="AI8" s="104"/>
+      <c r="AJ8" s="105"/>
       <c r="AK8" s="31"/>
-      <c r="AL8" s="105" t="s">
-        <v>216</v>
-      </c>
-      <c r="AM8" s="106"/>
-      <c r="AN8" s="106"/>
-      <c r="AO8" s="107"/>
-      <c r="AQ8" s="105" t="s">
-        <v>210</v>
-      </c>
-      <c r="AR8" s="106"/>
-      <c r="AS8" s="106"/>
-      <c r="AT8" s="107"/>
+      <c r="AL8" s="103" t="s">
+        <v>215</v>
+      </c>
+      <c r="AM8" s="104"/>
+      <c r="AN8" s="104"/>
+      <c r="AO8" s="105"/>
+      <c r="AQ8" s="103" t="s">
+        <v>209</v>
+      </c>
+      <c r="AR8" s="104"/>
+      <c r="AS8" s="104"/>
+      <c r="AT8" s="105"/>
     </row>
     <row r="9" spans="2:57" ht="10" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="92">
+      <c r="B9" s="106">
         <f>STR</f>
         <v>6</v>
       </c>
-      <c r="C9" s="93"/>
-      <c r="D9" s="93"/>
-      <c r="E9" s="94"/>
+      <c r="C9" s="107"/>
+      <c r="D9" s="107"/>
+      <c r="E9" s="108"/>
       <c r="F9" s="32"/>
-      <c r="H9" s="110">
+      <c r="H9" s="88">
         <f>CHARACTER_HP</f>
         <v>75</v>
       </c>
-      <c r="I9" s="111"/>
-      <c r="J9" s="111"/>
-      <c r="K9" s="112"/>
-      <c r="M9" s="110">
+      <c r="I9" s="89"/>
+      <c r="J9" s="89"/>
+      <c r="K9" s="90"/>
+      <c r="M9" s="88">
         <f>CHARACTER_ARMOR</f>
         <v>4</v>
       </c>
-      <c r="N9" s="111"/>
-      <c r="O9" s="111"/>
-      <c r="P9" s="112"/>
-      <c r="R9" s="110">
+      <c r="N9" s="89"/>
+      <c r="O9" s="89"/>
+      <c r="P9" s="90"/>
+      <c r="R9" s="88">
         <f>CHARACTER_AURA</f>
         <v>2</v>
       </c>
-      <c r="S9" s="111"/>
-      <c r="T9" s="111"/>
-      <c r="U9" s="112"/>
-      <c r="W9" s="110">
+      <c r="S9" s="89"/>
+      <c r="T9" s="89"/>
+      <c r="U9" s="90"/>
+      <c r="W9" s="88">
         <f>CHARACTER_EXPERTISE</f>
         <v>4</v>
       </c>
-      <c r="X9" s="111"/>
-      <c r="Y9" s="111"/>
-      <c r="Z9" s="112"/>
-      <c r="AB9" s="110">
+      <c r="X9" s="89"/>
+      <c r="Y9" s="89"/>
+      <c r="Z9" s="90"/>
+      <c r="AB9" s="88">
         <f>CHARACTER_MOVEMENT</f>
         <v>8</v>
       </c>
-      <c r="AC9" s="111"/>
-      <c r="AD9" s="111"/>
-      <c r="AE9" s="112"/>
+      <c r="AC9" s="89"/>
+      <c r="AD9" s="89"/>
+      <c r="AE9" s="90"/>
       <c r="AF9" s="31"/>
-      <c r="AG9" s="110">
+      <c r="AG9" s="88">
         <f>CHARACTER_INI</f>
         <v>20</v>
       </c>
-      <c r="AH9" s="111"/>
-      <c r="AI9" s="111"/>
-      <c r="AJ9" s="112"/>
+      <c r="AH9" s="89"/>
+      <c r="AI9" s="89"/>
+      <c r="AJ9" s="90"/>
       <c r="AK9" s="31"/>
-      <c r="AL9" s="110" t="str">
+      <c r="AL9" s="88" t="str">
         <f>FEAT_INI</f>
         <v>0</v>
       </c>
-      <c r="AM9" s="111"/>
-      <c r="AN9" s="111"/>
-      <c r="AO9" s="112"/>
-      <c r="AQ9" s="110">
+      <c r="AM9" s="89"/>
+      <c r="AN9" s="89"/>
+      <c r="AO9" s="90"/>
+      <c r="AQ9" s="88">
         <f>CHARACTER_AP</f>
         <v>3</v>
       </c>
-      <c r="AR9" s="111"/>
-      <c r="AS9" s="111"/>
-      <c r="AT9" s="112"/>
+      <c r="AR9" s="89"/>
+      <c r="AS9" s="89"/>
+      <c r="AT9" s="90"/>
     </row>
     <row r="10" spans="2:57" ht="10" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="92"/>
-      <c r="C10" s="93"/>
-      <c r="D10" s="93"/>
-      <c r="E10" s="94"/>
+      <c r="B10" s="106"/>
+      <c r="C10" s="107"/>
+      <c r="D10" s="107"/>
+      <c r="E10" s="108"/>
       <c r="F10" s="32"/>
-      <c r="H10" s="110"/>
-      <c r="I10" s="111"/>
-      <c r="J10" s="111"/>
-      <c r="K10" s="112"/>
-      <c r="M10" s="110"/>
-      <c r="N10" s="111"/>
-      <c r="O10" s="111"/>
-      <c r="P10" s="112"/>
-      <c r="R10" s="110"/>
-      <c r="S10" s="111"/>
-      <c r="T10" s="111"/>
-      <c r="U10" s="112"/>
-      <c r="W10" s="110"/>
-      <c r="X10" s="111"/>
-      <c r="Y10" s="111"/>
-      <c r="Z10" s="112"/>
-      <c r="AB10" s="110"/>
-      <c r="AC10" s="111"/>
-      <c r="AD10" s="111"/>
-      <c r="AE10" s="112"/>
+      <c r="H10" s="88"/>
+      <c r="I10" s="89"/>
+      <c r="J10" s="89"/>
+      <c r="K10" s="90"/>
+      <c r="M10" s="88"/>
+      <c r="N10" s="89"/>
+      <c r="O10" s="89"/>
+      <c r="P10" s="90"/>
+      <c r="R10" s="88"/>
+      <c r="S10" s="89"/>
+      <c r="T10" s="89"/>
+      <c r="U10" s="90"/>
+      <c r="W10" s="88"/>
+      <c r="X10" s="89"/>
+      <c r="Y10" s="89"/>
+      <c r="Z10" s="90"/>
+      <c r="AB10" s="88"/>
+      <c r="AC10" s="89"/>
+      <c r="AD10" s="89"/>
+      <c r="AE10" s="90"/>
       <c r="AF10" s="31"/>
-      <c r="AG10" s="110"/>
-      <c r="AH10" s="111"/>
-      <c r="AI10" s="111"/>
-      <c r="AJ10" s="112"/>
+      <c r="AG10" s="88"/>
+      <c r="AH10" s="89"/>
+      <c r="AI10" s="89"/>
+      <c r="AJ10" s="90"/>
       <c r="AK10" s="31"/>
-      <c r="AL10" s="110"/>
-      <c r="AM10" s="111"/>
-      <c r="AN10" s="111"/>
-      <c r="AO10" s="112"/>
+      <c r="AL10" s="88"/>
+      <c r="AM10" s="89"/>
+      <c r="AN10" s="89"/>
+      <c r="AO10" s="90"/>
       <c r="AP10" s="31"/>
-      <c r="AQ10" s="110"/>
-      <c r="AR10" s="111"/>
-      <c r="AS10" s="111"/>
-      <c r="AT10" s="112"/>
+      <c r="AQ10" s="88"/>
+      <c r="AR10" s="89"/>
+      <c r="AS10" s="89"/>
+      <c r="AT10" s="90"/>
     </row>
     <row r="11" spans="2:57" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="92"/>
-      <c r="C11" s="93"/>
-      <c r="D11" s="93"/>
-      <c r="E11" s="94"/>
+      <c r="B11" s="106"/>
+      <c r="C11" s="107"/>
+      <c r="D11" s="107"/>
+      <c r="E11" s="108"/>
       <c r="F11" s="32"/>
-      <c r="H11" s="113"/>
-      <c r="I11" s="114"/>
-      <c r="J11" s="114"/>
-      <c r="K11" s="115"/>
-      <c r="M11" s="113"/>
-      <c r="N11" s="114"/>
-      <c r="O11" s="114"/>
-      <c r="P11" s="115"/>
-      <c r="R11" s="113"/>
-      <c r="S11" s="114"/>
-      <c r="T11" s="114"/>
-      <c r="U11" s="115"/>
-      <c r="W11" s="113"/>
-      <c r="X11" s="114"/>
-      <c r="Y11" s="114"/>
-      <c r="Z11" s="115"/>
-      <c r="AB11" s="113"/>
-      <c r="AC11" s="114"/>
-      <c r="AD11" s="114"/>
-      <c r="AE11" s="115"/>
+      <c r="H11" s="91"/>
+      <c r="I11" s="92"/>
+      <c r="J11" s="92"/>
+      <c r="K11" s="93"/>
+      <c r="M11" s="91"/>
+      <c r="N11" s="92"/>
+      <c r="O11" s="92"/>
+      <c r="P11" s="93"/>
+      <c r="R11" s="91"/>
+      <c r="S11" s="92"/>
+      <c r="T11" s="92"/>
+      <c r="U11" s="93"/>
+      <c r="W11" s="91"/>
+      <c r="X11" s="92"/>
+      <c r="Y11" s="92"/>
+      <c r="Z11" s="93"/>
+      <c r="AB11" s="91"/>
+      <c r="AC11" s="92"/>
+      <c r="AD11" s="92"/>
+      <c r="AE11" s="93"/>
       <c r="AF11" s="31"/>
-      <c r="AG11" s="113"/>
-      <c r="AH11" s="114"/>
-      <c r="AI11" s="114"/>
-      <c r="AJ11" s="115"/>
+      <c r="AG11" s="91"/>
+      <c r="AH11" s="92"/>
+      <c r="AI11" s="92"/>
+      <c r="AJ11" s="93"/>
       <c r="AK11" s="31"/>
-      <c r="AL11" s="113"/>
-      <c r="AM11" s="114"/>
-      <c r="AN11" s="114"/>
-      <c r="AO11" s="115"/>
+      <c r="AL11" s="91"/>
+      <c r="AM11" s="92"/>
+      <c r="AN11" s="92"/>
+      <c r="AO11" s="93"/>
       <c r="AP11" s="31"/>
-      <c r="AQ11" s="113"/>
-      <c r="AR11" s="114"/>
-      <c r="AS11" s="114"/>
-      <c r="AT11" s="115"/>
+      <c r="AQ11" s="91"/>
+      <c r="AR11" s="92"/>
+      <c r="AS11" s="92"/>
+      <c r="AT11" s="93"/>
     </row>
     <row r="12" spans="2:57" ht="10" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="37"/>
-      <c r="C12" s="88">
+      <c r="C12" s="116">
         <f>STR_TOTAL</f>
         <v>55</v>
       </c>
-      <c r="D12" s="89"/>
+      <c r="D12" s="117"/>
       <c r="E12" s="38"/>
       <c r="F12" s="32"/>
       <c r="G12" s="36"/>
@@ -8058,8 +8061,8 @@
     </row>
     <row r="13" spans="2:57" ht="10" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="33"/>
-      <c r="C13" s="90"/>
-      <c r="D13" s="91"/>
+      <c r="C13" s="118"/>
+      <c r="D13" s="119"/>
       <c r="E13" s="32"/>
       <c r="F13" s="32"/>
       <c r="G13" s="36"/>
@@ -8081,7 +8084,7 @@
       <c r="Q13" s="41"/>
       <c r="R13" s="36"/>
       <c r="S13" s="51" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="T13" s="40"/>
       <c r="U13" s="40"/>
@@ -8097,7 +8100,7 @@
       <c r="AB13" s="54"/>
       <c r="AC13" s="36"/>
       <c r="AE13" s="98" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AF13" s="98"/>
       <c r="AG13" s="98"/>
@@ -8143,7 +8146,7 @@
       <c r="Q14" s="43"/>
       <c r="R14" s="36"/>
       <c r="S14" s="52" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="T14" s="42"/>
       <c r="U14" s="42"/>
@@ -8178,12 +8181,12 @@
       <c r="AW14" s="99"/>
     </row>
     <row r="15" spans="2:57" ht="10" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="95" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="96"/>
-      <c r="D15" s="96"/>
-      <c r="E15" s="97"/>
+      <c r="B15" s="112" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="113"/>
+      <c r="D15" s="113"/>
+      <c r="E15" s="114"/>
       <c r="F15" s="32"/>
       <c r="G15" s="36"/>
       <c r="H15" s="46" t="str">
@@ -8204,7 +8207,7 @@
       <c r="Q15" s="43"/>
       <c r="R15" s="36"/>
       <c r="S15" s="52" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="T15" s="42"/>
       <c r="U15" s="42"/>
@@ -8239,13 +8242,13 @@
       <c r="AW15" s="36"/>
     </row>
     <row r="16" spans="2:57" ht="10" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="92">
+      <c r="B16" s="106">
         <f>AGI</f>
         <v>1</v>
       </c>
-      <c r="C16" s="93"/>
-      <c r="D16" s="93"/>
-      <c r="E16" s="94"/>
+      <c r="C16" s="107"/>
+      <c r="D16" s="107"/>
+      <c r="E16" s="108"/>
       <c r="F16" s="32"/>
       <c r="G16" s="36"/>
       <c r="H16" s="46" t="str">
@@ -8266,7 +8269,7 @@
       <c r="Q16" s="43"/>
       <c r="R16" s="36"/>
       <c r="S16" s="52" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="T16" s="42"/>
       <c r="U16" s="42"/>
@@ -8280,28 +8283,28 @@
       <c r="AA16" s="55"/>
       <c r="AB16" s="56"/>
       <c r="AC16" s="36"/>
-      <c r="AE16" s="119" t="str">
+      <c r="AE16" s="94" t="str">
         <f>Weapons!AA3</f>
         <v>Great Sword: 1d18+2+6+6+2  INI:15</v>
       </c>
-      <c r="AF16" s="119"/>
-      <c r="AG16" s="119"/>
-      <c r="AH16" s="119"/>
-      <c r="AI16" s="119"/>
-      <c r="AJ16" s="119"/>
-      <c r="AK16" s="119"/>
-      <c r="AL16" s="119"/>
-      <c r="AM16" s="119"/>
-      <c r="AN16" s="119"/>
-      <c r="AO16" s="119"/>
-      <c r="AP16" s="119"/>
-      <c r="AQ16" s="119"/>
-      <c r="AR16" s="119"/>
-      <c r="AS16" s="119"/>
-      <c r="AT16" s="119"/>
-      <c r="AU16" s="119"/>
-      <c r="AV16" s="119"/>
-      <c r="AW16" s="119"/>
+      <c r="AF16" s="94"/>
+      <c r="AG16" s="94"/>
+      <c r="AH16" s="94"/>
+      <c r="AI16" s="94"/>
+      <c r="AJ16" s="94"/>
+      <c r="AK16" s="94"/>
+      <c r="AL16" s="94"/>
+      <c r="AM16" s="94"/>
+      <c r="AN16" s="94"/>
+      <c r="AO16" s="94"/>
+      <c r="AP16" s="94"/>
+      <c r="AQ16" s="94"/>
+      <c r="AR16" s="94"/>
+      <c r="AS16" s="94"/>
+      <c r="AT16" s="94"/>
+      <c r="AU16" s="94"/>
+      <c r="AV16" s="94"/>
+      <c r="AW16" s="94"/>
       <c r="AX16" s="78"/>
       <c r="AY16" s="78"/>
       <c r="AZ16" s="78"/>
@@ -8311,10 +8314,10 @@
       <c r="BD16" s="20"/>
     </row>
     <row r="17" spans="2:59" ht="10" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="92"/>
-      <c r="C17" s="93"/>
-      <c r="D17" s="93"/>
-      <c r="E17" s="94"/>
+      <c r="B17" s="106"/>
+      <c r="C17" s="107"/>
+      <c r="D17" s="107"/>
+      <c r="E17" s="108"/>
       <c r="F17" s="32"/>
       <c r="G17" s="36"/>
       <c r="H17" s="46" t="str">
@@ -8335,7 +8338,7 @@
       <c r="Q17" s="43"/>
       <c r="R17" s="36"/>
       <c r="S17" s="52" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="T17" s="42"/>
       <c r="U17" s="42"/>
@@ -8377,10 +8380,10 @@
       <c r="BD17" s="77"/>
     </row>
     <row r="18" spans="2:59" ht="10" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="92"/>
-      <c r="C18" s="93"/>
-      <c r="D18" s="93"/>
-      <c r="E18" s="94"/>
+      <c r="B18" s="106"/>
+      <c r="C18" s="107"/>
+      <c r="D18" s="107"/>
+      <c r="E18" s="108"/>
       <c r="F18" s="32"/>
       <c r="G18" s="36"/>
       <c r="H18" s="46" t="str">
@@ -8401,7 +8404,7 @@
       <c r="Q18" s="43"/>
       <c r="R18" s="36"/>
       <c r="S18" s="52" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="T18" s="42"/>
       <c r="U18" s="42"/>
@@ -8443,11 +8446,11 @@
     </row>
     <row r="19" spans="2:59" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B19" s="34"/>
-      <c r="C19" s="88">
+      <c r="C19" s="116">
         <f>AGI_TOTAL</f>
         <v>5</v>
       </c>
-      <c r="D19" s="89"/>
+      <c r="D19" s="117"/>
       <c r="E19" s="35"/>
       <c r="F19" s="32"/>
       <c r="G19" s="36"/>
@@ -8469,7 +8472,7 @@
       <c r="Q19" s="43"/>
       <c r="R19" s="36"/>
       <c r="S19" s="52" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="T19" s="42"/>
       <c r="U19" s="42"/>
@@ -8505,8 +8508,8 @@
     </row>
     <row r="20" spans="2:59" ht="10" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="33"/>
-      <c r="C20" s="90"/>
-      <c r="D20" s="91"/>
+      <c r="C20" s="118"/>
+      <c r="D20" s="119"/>
       <c r="E20" s="32"/>
       <c r="F20" s="32"/>
       <c r="G20" s="36"/>
@@ -8528,7 +8531,7 @@
       <c r="Q20" s="43"/>
       <c r="R20" s="36"/>
       <c r="S20" s="52" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="T20" s="42"/>
       <c r="U20" s="42"/>
@@ -8587,7 +8590,7 @@
       <c r="Q21" s="43"/>
       <c r="R21" s="36"/>
       <c r="S21" s="52" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="T21" s="42"/>
       <c r="U21" s="42"/>
@@ -8629,12 +8632,12 @@
       <c r="BG21" s="32"/>
     </row>
     <row r="22" spans="2:59" ht="10" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="95" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22" s="96"/>
-      <c r="D22" s="96"/>
-      <c r="E22" s="97"/>
+      <c r="B22" s="112" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="113"/>
+      <c r="D22" s="113"/>
+      <c r="E22" s="114"/>
       <c r="F22" s="32"/>
       <c r="G22" s="36"/>
       <c r="H22" s="46" t="str">
@@ -8655,7 +8658,7 @@
       <c r="Q22" s="43"/>
       <c r="R22" s="36"/>
       <c r="S22" s="52" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="T22" s="42"/>
       <c r="U22" s="42"/>
@@ -8670,7 +8673,7 @@
       <c r="AB22" s="56"/>
       <c r="AC22" s="36"/>
       <c r="AE22" s="98" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AF22" s="98"/>
       <c r="AG22" s="98"/>
@@ -8699,13 +8702,13 @@
       <c r="BG22" s="32"/>
     </row>
     <row r="23" spans="2:59" ht="10" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="92">
+      <c r="B23" s="106">
         <f>INU</f>
         <v>3</v>
       </c>
-      <c r="C23" s="93"/>
-      <c r="D23" s="93"/>
-      <c r="E23" s="94"/>
+      <c r="C23" s="107"/>
+      <c r="D23" s="107"/>
+      <c r="E23" s="108"/>
       <c r="F23" s="32"/>
       <c r="G23" s="36"/>
       <c r="H23" s="46" t="str">
@@ -8726,7 +8729,7 @@
       <c r="Q23" s="43"/>
       <c r="R23" s="36"/>
       <c r="S23" s="52" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="T23" s="42"/>
       <c r="U23" s="42"/>
@@ -8769,10 +8772,10 @@
       <c r="BG23" s="32"/>
     </row>
     <row r="24" spans="2:59" ht="10" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="92"/>
-      <c r="C24" s="93"/>
-      <c r="D24" s="93"/>
-      <c r="E24" s="94"/>
+      <c r="B24" s="106"/>
+      <c r="C24" s="107"/>
+      <c r="D24" s="107"/>
+      <c r="E24" s="108"/>
       <c r="F24" s="32"/>
       <c r="G24" s="36"/>
       <c r="H24" s="46" t="str">
@@ -8793,7 +8796,7 @@
       <c r="Q24" s="43"/>
       <c r="R24" s="36"/>
       <c r="S24" s="52" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="T24" s="42"/>
       <c r="U24" s="42"/>
@@ -8836,10 +8839,10 @@
       <c r="BG24" s="32"/>
     </row>
     <row r="25" spans="2:59" ht="10" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="92"/>
-      <c r="C25" s="93"/>
-      <c r="D25" s="93"/>
-      <c r="E25" s="94"/>
+      <c r="B25" s="106"/>
+      <c r="C25" s="107"/>
+      <c r="D25" s="107"/>
+      <c r="E25" s="108"/>
       <c r="F25" s="32"/>
       <c r="G25" s="36"/>
       <c r="H25" s="46" t="str">
@@ -8860,7 +8863,7 @@
       <c r="Q25" s="43"/>
       <c r="R25" s="36"/>
       <c r="S25" s="52" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="T25" s="42"/>
       <c r="U25" s="42"/>
@@ -8876,7 +8879,7 @@
       <c r="AC25" s="36"/>
       <c r="AD25" s="36"/>
       <c r="AE25" s="36" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AF25" s="36"/>
       <c r="AG25" s="36"/>
@@ -8906,11 +8909,11 @@
     </row>
     <row r="26" spans="2:59" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B26" s="34"/>
-      <c r="C26" s="88">
+      <c r="C26" s="116">
         <f>INU_TOTAL</f>
         <v>29</v>
       </c>
-      <c r="D26" s="89"/>
+      <c r="D26" s="117"/>
       <c r="E26" s="35"/>
       <c r="F26" s="32"/>
       <c r="G26" s="36"/>
@@ -8932,7 +8935,7 @@
       <c r="Q26" s="43"/>
       <c r="R26" s="36"/>
       <c r="S26" s="57" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="T26" s="42"/>
       <c r="U26" s="42"/>
@@ -8950,7 +8953,7 @@
       <c r="AD26" s="36"/>
       <c r="AE26" s="36"/>
       <c r="AF26" s="36" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="AG26" s="36"/>
       <c r="AH26" s="36"/>
@@ -8979,8 +8982,8 @@
     </row>
     <row r="27" spans="2:59" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="33"/>
-      <c r="C27" s="90"/>
-      <c r="D27" s="91"/>
+      <c r="C27" s="118"/>
+      <c r="D27" s="119"/>
       <c r="E27" s="32"/>
       <c r="F27" s="32"/>
       <c r="G27" s="36"/>
@@ -9015,7 +9018,7 @@
       <c r="AD27" s="36"/>
       <c r="AE27" s="36"/>
       <c r="AF27" s="36" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AG27" s="36"/>
       <c r="AH27" s="36"/>
@@ -9066,22 +9069,22 @@
       <c r="P28" s="42"/>
       <c r="Q28" s="43"/>
       <c r="R28" s="36"/>
-      <c r="S28" s="100" t="s">
-        <v>63</v>
-      </c>
-      <c r="T28" s="101"/>
-      <c r="U28" s="101"/>
-      <c r="V28" s="101"/>
-      <c r="W28" s="101"/>
-      <c r="X28" s="101"/>
-      <c r="Y28" s="101"/>
-      <c r="Z28" s="101"/>
-      <c r="AA28" s="101"/>
-      <c r="AB28" s="102"/>
+      <c r="S28" s="95" t="s">
+        <v>62</v>
+      </c>
+      <c r="T28" s="96"/>
+      <c r="U28" s="96"/>
+      <c r="V28" s="96"/>
+      <c r="W28" s="96"/>
+      <c r="X28" s="96"/>
+      <c r="Y28" s="96"/>
+      <c r="Z28" s="96"/>
+      <c r="AA28" s="96"/>
+      <c r="AB28" s="97"/>
       <c r="AC28" s="36"/>
       <c r="AD28" s="36"/>
       <c r="AE28" s="36" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="AF28" s="36"/>
       <c r="AG28" s="36"/>
@@ -9110,12 +9113,12 @@
       <c r="BG28" s="32"/>
     </row>
     <row r="29" spans="2:59" ht="10" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="95" t="s">
-        <v>54</v>
-      </c>
-      <c r="C29" s="96"/>
-      <c r="D29" s="96"/>
-      <c r="E29" s="97"/>
+      <c r="B29" s="112" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="113"/>
+      <c r="D29" s="113"/>
+      <c r="E29" s="114"/>
       <c r="G29" s="36"/>
       <c r="H29" s="46" t="str">
         <f>INDEX(Skills!$A$1:$K$34,18,1)</f>
@@ -9148,7 +9151,7 @@
       <c r="AD29" s="36"/>
       <c r="AE29" s="36"/>
       <c r="AF29" s="36" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="AG29" s="36"/>
       <c r="AH29" s="36"/>
@@ -9176,17 +9179,17 @@
       <c r="BG29" s="32"/>
     </row>
     <row r="30" spans="2:59" ht="10" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="92">
+      <c r="B30" s="106">
         <f>CHA</f>
         <v>3</v>
       </c>
-      <c r="C30" s="93"/>
-      <c r="D30" s="93"/>
-      <c r="E30" s="94"/>
+      <c r="C30" s="107"/>
+      <c r="D30" s="107"/>
+      <c r="E30" s="108"/>
       <c r="G30" s="36"/>
       <c r="H30" s="46" t="str">
         <f>INDEX(Skills!$A$1:$K$34,19,1)</f>
-        <v>Torture</v>
+        <v>Haggle</v>
       </c>
       <c r="I30" s="47"/>
       <c r="J30" s="47"/>
@@ -9202,13 +9205,13 @@
       <c r="Q30" s="43"/>
       <c r="R30" s="36"/>
       <c r="S30" s="60" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="T30" s="61"/>
       <c r="U30" s="61"/>
       <c r="V30" s="61"/>
       <c r="W30" s="62" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="X30" s="61"/>
       <c r="Y30" s="73" t="str">
@@ -9222,7 +9225,7 @@
       <c r="AD30" s="36"/>
       <c r="AE30" s="36"/>
       <c r="AF30" s="36" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AG30" s="36"/>
       <c r="AH30" s="36"/>
@@ -9250,10 +9253,10 @@
       <c r="BG30" s="32"/>
     </row>
     <row r="31" spans="2:59" ht="10" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="92"/>
-      <c r="C31" s="93"/>
-      <c r="D31" s="93"/>
-      <c r="E31" s="94"/>
+      <c r="B31" s="106"/>
+      <c r="C31" s="107"/>
+      <c r="D31" s="107"/>
+      <c r="E31" s="108"/>
       <c r="G31" s="36"/>
       <c r="H31" s="46" t="str">
         <f>INDEX(Skills!$A$1:$K$34,20,1)</f>
@@ -9273,13 +9276,13 @@
       <c r="Q31" s="43"/>
       <c r="R31" s="36"/>
       <c r="S31" s="64" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="T31" s="65"/>
       <c r="U31" s="65"/>
       <c r="V31" s="65"/>
       <c r="W31" s="66" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="X31" s="65"/>
       <c r="Y31" s="73" t="str">
@@ -9292,7 +9295,7 @@
       <c r="AC31" s="36"/>
       <c r="AD31" s="36"/>
       <c r="AE31" s="36" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="AF31" s="36"/>
       <c r="AG31" s="36"/>
@@ -9321,10 +9324,10 @@
       <c r="BG31" s="32"/>
     </row>
     <row r="32" spans="2:59" ht="10" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="92"/>
-      <c r="C32" s="93"/>
-      <c r="D32" s="93"/>
-      <c r="E32" s="94"/>
+      <c r="B32" s="106"/>
+      <c r="C32" s="107"/>
+      <c r="D32" s="107"/>
+      <c r="E32" s="108"/>
       <c r="G32" s="36"/>
       <c r="H32" s="46" t="str">
         <f>INDEX(Skills!$A$1:$K$34,21,1)</f>
@@ -9344,13 +9347,13 @@
       <c r="Q32" s="43"/>
       <c r="R32" s="36"/>
       <c r="S32" s="64" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="T32" s="65"/>
       <c r="U32" s="65"/>
       <c r="V32" s="65"/>
       <c r="W32" s="66" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="X32" s="65"/>
       <c r="Y32" s="73" t="str">
@@ -9391,11 +9394,11 @@
     </row>
     <row r="33" spans="2:59" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B33" s="34"/>
-      <c r="C33" s="88">
+      <c r="C33" s="116">
         <f>CHA_TOTAL</f>
         <v>29</v>
       </c>
-      <c r="D33" s="89"/>
+      <c r="D33" s="117"/>
       <c r="E33" s="35"/>
       <c r="G33" s="36"/>
       <c r="H33" s="46" t="str">
@@ -9416,13 +9419,13 @@
       <c r="Q33" s="43"/>
       <c r="R33" s="36"/>
       <c r="S33" s="64" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="T33" s="65"/>
       <c r="U33" s="65"/>
       <c r="V33" s="65"/>
       <c r="W33" s="66" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="X33" s="65"/>
       <c r="Y33" s="73" t="str">
@@ -9435,7 +9438,7 @@
       <c r="AC33" s="36"/>
       <c r="AD33" s="36"/>
       <c r="AE33" s="98" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="AF33" s="98"/>
       <c r="AG33" s="98"/>
@@ -9465,8 +9468,8 @@
     </row>
     <row r="34" spans="2:59" ht="10" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="33"/>
-      <c r="C34" s="90"/>
-      <c r="D34" s="91"/>
+      <c r="C34" s="118"/>
+      <c r="D34" s="119"/>
       <c r="E34" s="32"/>
       <c r="G34" s="36"/>
       <c r="H34" s="46" t="str">
@@ -9487,13 +9490,13 @@
       <c r="Q34" s="43"/>
       <c r="R34" s="36"/>
       <c r="S34" s="64" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="T34" s="65"/>
       <c r="U34" s="65"/>
       <c r="V34" s="65"/>
       <c r="W34" s="66" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="X34" s="65"/>
       <c r="Y34" s="73" t="str">
@@ -9536,7 +9539,7 @@
       <c r="G35" s="36"/>
       <c r="H35" s="46" t="str">
         <f>INDEX(Skills!$A$1:$K$34,24,1)</f>
-        <v>Culture</v>
+        <v>Wilderness Surv.</v>
       </c>
       <c r="I35" s="47"/>
       <c r="J35" s="47"/>
@@ -9552,13 +9555,13 @@
       <c r="Q35" s="43"/>
       <c r="R35" s="36"/>
       <c r="S35" s="64" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="T35" s="65"/>
       <c r="U35" s="65"/>
       <c r="V35" s="65"/>
       <c r="W35" s="66" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="X35" s="65"/>
       <c r="Y35" s="73" t="str">
@@ -9598,12 +9601,12 @@
       <c r="BG35" s="32"/>
     </row>
     <row r="36" spans="2:59" ht="10" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="95" t="s">
-        <v>33</v>
-      </c>
-      <c r="C36" s="96"/>
-      <c r="D36" s="96"/>
-      <c r="E36" s="97"/>
+      <c r="B36" s="112" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36" s="113"/>
+      <c r="D36" s="113"/>
+      <c r="E36" s="114"/>
       <c r="G36" s="36"/>
       <c r="H36" s="46" t="str">
         <f>INDEX(Skills!$A$1:$K$34,25,1)</f>
@@ -9623,13 +9626,13 @@
       <c r="Q36" s="43"/>
       <c r="R36" s="36"/>
       <c r="S36" s="64" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="T36" s="65"/>
       <c r="U36" s="65"/>
       <c r="V36" s="65"/>
       <c r="W36" s="66" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="X36" s="65"/>
       <c r="Y36" s="73" t="str">
@@ -9641,28 +9644,28 @@
       <c r="AB36" s="67"/>
       <c r="AC36" s="36"/>
       <c r="AD36" s="36"/>
-      <c r="AE36" s="119" t="str">
+      <c r="AE36" s="94" t="str">
         <f>"Strength: " &amp; Statistics!$O2</f>
         <v>Strength: 1d10 + 0</v>
       </c>
-      <c r="AF36" s="119"/>
-      <c r="AG36" s="119"/>
-      <c r="AH36" s="119"/>
-      <c r="AI36" s="119"/>
-      <c r="AJ36" s="119"/>
-      <c r="AK36" s="119"/>
-      <c r="AL36" s="119"/>
-      <c r="AM36" s="119"/>
-      <c r="AN36" s="119"/>
-      <c r="AO36" s="119"/>
-      <c r="AP36" s="119"/>
-      <c r="AQ36" s="119"/>
-      <c r="AR36" s="119"/>
-      <c r="AS36" s="119"/>
-      <c r="AT36" s="119"/>
-      <c r="AU36" s="119"/>
-      <c r="AV36" s="119"/>
-      <c r="AW36" s="119"/>
+      <c r="AF36" s="94"/>
+      <c r="AG36" s="94"/>
+      <c r="AH36" s="94"/>
+      <c r="AI36" s="94"/>
+      <c r="AJ36" s="94"/>
+      <c r="AK36" s="94"/>
+      <c r="AL36" s="94"/>
+      <c r="AM36" s="94"/>
+      <c r="AN36" s="94"/>
+      <c r="AO36" s="94"/>
+      <c r="AP36" s="94"/>
+      <c r="AQ36" s="94"/>
+      <c r="AR36" s="94"/>
+      <c r="AS36" s="94"/>
+      <c r="AT36" s="94"/>
+      <c r="AU36" s="94"/>
+      <c r="AV36" s="94"/>
+      <c r="AW36" s="94"/>
       <c r="BA36" s="32"/>
       <c r="BB36" s="32"/>
       <c r="BC36" s="32"/>
@@ -9672,13 +9675,13 @@
       <c r="BG36" s="32"/>
     </row>
     <row r="37" spans="2:59" ht="10" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="92">
+      <c r="B37" s="106">
         <f>PER</f>
         <v>2</v>
       </c>
-      <c r="C37" s="93"/>
-      <c r="D37" s="93"/>
-      <c r="E37" s="94"/>
+      <c r="C37" s="107"/>
+      <c r="D37" s="107"/>
+      <c r="E37" s="108"/>
       <c r="G37" s="36"/>
       <c r="H37" s="46" t="str">
         <f>INDEX(Skills!$A$1:$K$34,26,1)</f>
@@ -9698,13 +9701,13 @@
       <c r="Q37" s="43"/>
       <c r="R37" s="36"/>
       <c r="S37" s="64" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="T37" s="65"/>
       <c r="U37" s="65"/>
       <c r="V37" s="65"/>
       <c r="W37" s="66" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="X37" s="65"/>
       <c r="Y37" s="73" t="str">
@@ -9716,28 +9719,28 @@
       <c r="AB37" s="67"/>
       <c r="AC37" s="36"/>
       <c r="AD37" s="36"/>
-      <c r="AE37" s="119" t="str">
+      <c r="AE37" s="94" t="str">
         <f>"Strength: " &amp; Statistics!$O3</f>
         <v>Strength: 1d10 + 0</v>
       </c>
-      <c r="AF37" s="119"/>
-      <c r="AG37" s="119"/>
-      <c r="AH37" s="119"/>
-      <c r="AI37" s="119"/>
-      <c r="AJ37" s="119"/>
-      <c r="AK37" s="119"/>
-      <c r="AL37" s="119"/>
-      <c r="AM37" s="119"/>
-      <c r="AN37" s="119"/>
-      <c r="AO37" s="119"/>
-      <c r="AP37" s="119"/>
-      <c r="AQ37" s="119"/>
-      <c r="AR37" s="119"/>
-      <c r="AS37" s="119"/>
-      <c r="AT37" s="119"/>
-      <c r="AU37" s="119"/>
-      <c r="AV37" s="119"/>
-      <c r="AW37" s="119"/>
+      <c r="AF37" s="94"/>
+      <c r="AG37" s="94"/>
+      <c r="AH37" s="94"/>
+      <c r="AI37" s="94"/>
+      <c r="AJ37" s="94"/>
+      <c r="AK37" s="94"/>
+      <c r="AL37" s="94"/>
+      <c r="AM37" s="94"/>
+      <c r="AN37" s="94"/>
+      <c r="AO37" s="94"/>
+      <c r="AP37" s="94"/>
+      <c r="AQ37" s="94"/>
+      <c r="AR37" s="94"/>
+      <c r="AS37" s="94"/>
+      <c r="AT37" s="94"/>
+      <c r="AU37" s="94"/>
+      <c r="AV37" s="94"/>
+      <c r="AW37" s="94"/>
       <c r="BA37" s="32"/>
       <c r="BB37" s="32"/>
       <c r="BC37" s="32"/>
@@ -9747,10 +9750,10 @@
       <c r="BG37" s="32"/>
     </row>
     <row r="38" spans="2:59" ht="10" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="92"/>
-      <c r="C38" s="93"/>
-      <c r="D38" s="93"/>
-      <c r="E38" s="94"/>
+      <c r="B38" s="106"/>
+      <c r="C38" s="107"/>
+      <c r="D38" s="107"/>
+      <c r="E38" s="108"/>
       <c r="G38" s="36"/>
       <c r="H38" s="46" t="str">
         <f>INDEX(Skills!$A$1:$K$34,27,1)</f>
@@ -9770,13 +9773,13 @@
       <c r="Q38" s="43"/>
       <c r="R38" s="36"/>
       <c r="S38" s="64" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="T38" s="65"/>
       <c r="U38" s="65"/>
       <c r="V38" s="65"/>
       <c r="W38" s="66" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="X38" s="65"/>
       <c r="Y38" s="73" t="str">
@@ -9788,28 +9791,28 @@
       <c r="AB38" s="67"/>
       <c r="AC38" s="36"/>
       <c r="AD38" s="36"/>
-      <c r="AE38" s="119" t="str">
+      <c r="AE38" s="94" t="str">
         <f>"Strength: " &amp; Statistics!$O4</f>
         <v>Strength: 1d10 + 0</v>
       </c>
-      <c r="AF38" s="119"/>
-      <c r="AG38" s="119"/>
-      <c r="AH38" s="119"/>
-      <c r="AI38" s="119"/>
-      <c r="AJ38" s="119"/>
-      <c r="AK38" s="119"/>
-      <c r="AL38" s="119"/>
-      <c r="AM38" s="119"/>
-      <c r="AN38" s="119"/>
-      <c r="AO38" s="119"/>
-      <c r="AP38" s="119"/>
-      <c r="AQ38" s="119"/>
-      <c r="AR38" s="119"/>
-      <c r="AS38" s="119"/>
-      <c r="AT38" s="119"/>
-      <c r="AU38" s="119"/>
-      <c r="AV38" s="119"/>
-      <c r="AW38" s="119"/>
+      <c r="AF38" s="94"/>
+      <c r="AG38" s="94"/>
+      <c r="AH38" s="94"/>
+      <c r="AI38" s="94"/>
+      <c r="AJ38" s="94"/>
+      <c r="AK38" s="94"/>
+      <c r="AL38" s="94"/>
+      <c r="AM38" s="94"/>
+      <c r="AN38" s="94"/>
+      <c r="AO38" s="94"/>
+      <c r="AP38" s="94"/>
+      <c r="AQ38" s="94"/>
+      <c r="AR38" s="94"/>
+      <c r="AS38" s="94"/>
+      <c r="AT38" s="94"/>
+      <c r="AU38" s="94"/>
+      <c r="AV38" s="94"/>
+      <c r="AW38" s="94"/>
       <c r="BA38" s="32"/>
       <c r="BB38" s="32"/>
       <c r="BC38" s="32"/>
@@ -9819,10 +9822,10 @@
       <c r="BG38" s="32"/>
     </row>
     <row r="39" spans="2:59" ht="10" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="92"/>
-      <c r="C39" s="93"/>
-      <c r="D39" s="93"/>
-      <c r="E39" s="94"/>
+      <c r="B39" s="106"/>
+      <c r="C39" s="107"/>
+      <c r="D39" s="107"/>
+      <c r="E39" s="108"/>
       <c r="G39" s="36"/>
       <c r="H39" s="46" t="str">
         <f>INDEX(Skills!$A$1:$K$34,28,1)</f>
@@ -9853,28 +9856,28 @@
       <c r="AB39" s="70"/>
       <c r="AC39" s="36"/>
       <c r="AD39" s="36"/>
-      <c r="AE39" s="119" t="str">
+      <c r="AE39" s="94" t="str">
         <f>"Strength: " &amp; Statistics!$O5</f>
         <v>Strength: 1d10 + 0</v>
       </c>
-      <c r="AF39" s="119"/>
-      <c r="AG39" s="119"/>
-      <c r="AH39" s="119"/>
-      <c r="AI39" s="119"/>
-      <c r="AJ39" s="119"/>
-      <c r="AK39" s="119"/>
-      <c r="AL39" s="119"/>
-      <c r="AM39" s="119"/>
-      <c r="AN39" s="119"/>
-      <c r="AO39" s="119"/>
-      <c r="AP39" s="119"/>
-      <c r="AQ39" s="119"/>
-      <c r="AR39" s="119"/>
-      <c r="AS39" s="119"/>
-      <c r="AT39" s="119"/>
-      <c r="AU39" s="119"/>
-      <c r="AV39" s="119"/>
-      <c r="AW39" s="119"/>
+      <c r="AF39" s="94"/>
+      <c r="AG39" s="94"/>
+      <c r="AH39" s="94"/>
+      <c r="AI39" s="94"/>
+      <c r="AJ39" s="94"/>
+      <c r="AK39" s="94"/>
+      <c r="AL39" s="94"/>
+      <c r="AM39" s="94"/>
+      <c r="AN39" s="94"/>
+      <c r="AO39" s="94"/>
+      <c r="AP39" s="94"/>
+      <c r="AQ39" s="94"/>
+      <c r="AR39" s="94"/>
+      <c r="AS39" s="94"/>
+      <c r="AT39" s="94"/>
+      <c r="AU39" s="94"/>
+      <c r="AV39" s="94"/>
+      <c r="AW39" s="94"/>
       <c r="BA39" s="32"/>
       <c r="BB39" s="32"/>
       <c r="BC39" s="32"/>
@@ -9885,62 +9888,42 @@
     </row>
     <row r="40" spans="2:59" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B40" s="34"/>
-      <c r="C40" s="88">
+      <c r="C40" s="116">
         <f>PER_TOTAL</f>
         <v>11</v>
       </c>
-      <c r="D40" s="89"/>
+      <c r="D40" s="117"/>
       <c r="E40" s="35"/>
       <c r="G40" s="36"/>
-      <c r="H40" s="100" t="s">
-        <v>62</v>
-      </c>
-      <c r="I40" s="101"/>
-      <c r="J40" s="101"/>
-      <c r="K40" s="101"/>
-      <c r="L40" s="101"/>
-      <c r="M40" s="101"/>
-      <c r="N40" s="101"/>
-      <c r="O40" s="101"/>
-      <c r="P40" s="101"/>
-      <c r="Q40" s="102"/>
+      <c r="H40" s="46"/>
+      <c r="Q40" s="43"/>
       <c r="R40" s="36"/>
-      <c r="S40" s="100" t="s">
-        <v>64</v>
-      </c>
-      <c r="T40" s="101"/>
-      <c r="U40" s="101"/>
-      <c r="V40" s="101"/>
-      <c r="W40" s="101"/>
-      <c r="X40" s="101"/>
-      <c r="Y40" s="101"/>
-      <c r="Z40" s="101"/>
-      <c r="AA40" s="101"/>
-      <c r="AB40" s="102"/>
+      <c r="S40" s="46"/>
+      <c r="AB40" s="70"/>
       <c r="AC40" s="36"/>
       <c r="AD40" s="36"/>
-      <c r="AE40" s="119" t="str">
+      <c r="AE40" s="94" t="str">
         <f>"Strength: " &amp; Statistics!$O6</f>
         <v>Strength: 1d10 + 0</v>
       </c>
-      <c r="AF40" s="119"/>
-      <c r="AG40" s="119"/>
-      <c r="AH40" s="119"/>
-      <c r="AI40" s="119"/>
-      <c r="AJ40" s="119"/>
-      <c r="AK40" s="119"/>
-      <c r="AL40" s="119"/>
-      <c r="AM40" s="119"/>
-      <c r="AN40" s="119"/>
-      <c r="AO40" s="119"/>
-      <c r="AP40" s="119"/>
-      <c r="AQ40" s="119"/>
-      <c r="AR40" s="119"/>
-      <c r="AS40" s="119"/>
-      <c r="AT40" s="119"/>
-      <c r="AU40" s="119"/>
-      <c r="AV40" s="119"/>
-      <c r="AW40" s="119"/>
+      <c r="AF40" s="94"/>
+      <c r="AG40" s="94"/>
+      <c r="AH40" s="94"/>
+      <c r="AI40" s="94"/>
+      <c r="AJ40" s="94"/>
+      <c r="AK40" s="94"/>
+      <c r="AL40" s="94"/>
+      <c r="AM40" s="94"/>
+      <c r="AN40" s="94"/>
+      <c r="AO40" s="94"/>
+      <c r="AP40" s="94"/>
+      <c r="AQ40" s="94"/>
+      <c r="AR40" s="94"/>
+      <c r="AS40" s="94"/>
+      <c r="AT40" s="94"/>
+      <c r="AU40" s="94"/>
+      <c r="AV40" s="94"/>
+      <c r="AW40" s="94"/>
       <c r="BA40" s="32"/>
       <c r="BB40" s="32"/>
       <c r="BC40" s="32"/>
@@ -9951,11 +9934,11 @@
     </row>
     <row r="41" spans="2:59" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="33"/>
-      <c r="C41" s="90"/>
-      <c r="D41" s="91"/>
+      <c r="C41" s="118"/>
+      <c r="D41" s="119"/>
       <c r="E41" s="32"/>
       <c r="G41" s="36"/>
-      <c r="H41" s="36"/>
+      <c r="H41" s="46"/>
       <c r="I41" s="36"/>
       <c r="J41" s="36"/>
       <c r="K41" s="36"/>
@@ -9964,8 +9947,10 @@
       <c r="N41" s="36"/>
       <c r="O41" s="36"/>
       <c r="P41" s="36"/>
-      <c r="Q41" s="36"/>
+      <c r="Q41" s="43"/>
       <c r="R41" s="36"/>
+      <c r="S41" s="46"/>
+      <c r="AB41" s="70"/>
       <c r="AC41" s="36"/>
       <c r="AD41" s="36"/>
       <c r="AE41" s="36"/>
@@ -9993,27 +9978,31 @@
     </row>
     <row r="42" spans="2:59" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G42" s="36"/>
-      <c r="H42" s="36"/>
-      <c r="I42" s="36"/>
-      <c r="J42" s="36"/>
-      <c r="K42" s="36"/>
-      <c r="L42" s="36"/>
-      <c r="M42" s="36"/>
-      <c r="N42" s="36"/>
-      <c r="O42" s="36"/>
-      <c r="P42" s="36"/>
-      <c r="Q42" s="36"/>
+      <c r="H42" s="95" t="s">
+        <v>61</v>
+      </c>
+      <c r="I42" s="96"/>
+      <c r="J42" s="96"/>
+      <c r="K42" s="96"/>
+      <c r="L42" s="96"/>
+      <c r="M42" s="96"/>
+      <c r="N42" s="96"/>
+      <c r="O42" s="96"/>
+      <c r="P42" s="96"/>
+      <c r="Q42" s="97"/>
       <c r="R42" s="36"/>
-      <c r="S42" s="36"/>
-      <c r="T42" s="36"/>
-      <c r="U42" s="36"/>
-      <c r="V42" s="36"/>
-      <c r="W42" s="36"/>
-      <c r="X42" s="36"/>
-      <c r="Y42" s="36"/>
-      <c r="Z42" s="36"/>
-      <c r="AA42" s="36"/>
-      <c r="AB42" s="36"/>
+      <c r="S42" s="95" t="s">
+        <v>63</v>
+      </c>
+      <c r="T42" s="96"/>
+      <c r="U42" s="96"/>
+      <c r="V42" s="96"/>
+      <c r="W42" s="96"/>
+      <c r="X42" s="96"/>
+      <c r="Y42" s="96"/>
+      <c r="Z42" s="96"/>
+      <c r="AA42" s="96"/>
+      <c r="AB42" s="97"/>
       <c r="AC42" s="36"/>
       <c r="AD42" s="36"/>
       <c r="AE42" s="36"/>
@@ -10089,7 +10078,7 @@
     </row>
     <row r="44" spans="2:59" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="98" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C44" s="98"/>
       <c r="D44" s="98"/>
@@ -10197,7 +10186,7 @@
     </row>
     <row r="47" spans="2:59" ht="10" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="87" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C47" s="87"/>
       <c r="D47" s="87"/>
@@ -10205,7 +10194,7 @@
       <c r="F47" s="87"/>
       <c r="G47" s="87"/>
       <c r="H47" s="87" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="I47" s="36"/>
       <c r="J47" s="36"/>
@@ -10258,7 +10247,7 @@
       <c r="G48" s="87"/>
       <c r="H48" s="87"/>
       <c r="I48" s="36" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="J48" s="36"/>
       <c r="K48" s="36"/>
@@ -10310,7 +10299,7 @@
       <c r="G49" s="87"/>
       <c r="H49" s="87"/>
       <c r="I49" s="36" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="J49" s="36"/>
       <c r="K49" s="36"/>
@@ -10355,7 +10344,7 @@
     </row>
     <row r="50" spans="2:49" ht="10" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B50" s="87" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C50" s="87"/>
       <c r="D50" s="87"/>
@@ -10363,7 +10352,7 @@
       <c r="F50" s="87"/>
       <c r="G50" s="87"/>
       <c r="H50" s="87" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I50" s="36"/>
       <c r="J50" s="36"/>
@@ -10409,7 +10398,7 @@
     </row>
     <row r="51" spans="2:49" ht="10" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B51" s="87" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C51" s="87"/>
       <c r="D51" s="87"/>
@@ -10417,7 +10406,7 @@
       <c r="F51" s="87"/>
       <c r="G51" s="87"/>
       <c r="H51" s="87" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I51" s="36"/>
       <c r="J51" s="36"/>
@@ -10463,7 +10452,7 @@
     </row>
     <row r="52" spans="2:49" ht="10" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B52" s="87" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C52" s="87"/>
       <c r="D52" s="87"/>
@@ -10471,7 +10460,7 @@
       <c r="F52" s="87"/>
       <c r="G52" s="87"/>
       <c r="H52" s="87" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I52" s="36"/>
       <c r="J52" s="36"/>
@@ -10517,7 +10506,7 @@
     </row>
     <row r="53" spans="2:49" ht="10" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B53" s="87" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C53" s="87"/>
       <c r="D53" s="87"/>
@@ -10525,7 +10514,7 @@
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
       <c r="H53" s="87" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I53" s="36"/>
       <c r="J53" s="36"/>
@@ -10571,7 +10560,7 @@
     </row>
     <row r="54" spans="2:49" ht="10" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B54" s="87" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C54" s="87"/>
       <c r="D54" s="87"/>
@@ -10579,7 +10568,7 @@
       <c r="F54" s="87"/>
       <c r="G54" s="87"/>
       <c r="H54" s="87" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I54" s="36"/>
       <c r="J54" s="36"/>
@@ -10625,7 +10614,7 @@
     </row>
     <row r="55" spans="2:49" ht="10" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B55" s="87" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C55" s="87"/>
       <c r="D55" s="87"/>
@@ -10633,7 +10622,7 @@
       <c r="F55" s="87"/>
       <c r="G55" s="87"/>
       <c r="H55" s="87" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I55" s="36"/>
       <c r="J55" s="36"/>
@@ -10679,7 +10668,7 @@
     </row>
     <row r="56" spans="2:49" ht="10" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B56" s="87" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C56" s="87"/>
       <c r="D56" s="87"/>
@@ -10687,7 +10676,7 @@
       <c r="F56" s="87"/>
       <c r="G56" s="87"/>
       <c r="H56" s="87" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I56" s="36"/>
       <c r="J56" s="36"/>
@@ -10733,7 +10722,7 @@
     </row>
     <row r="57" spans="2:49" ht="10" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B57" s="87" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C57" s="87"/>
       <c r="D57" s="87"/>
@@ -10741,7 +10730,7 @@
       <c r="F57" s="87"/>
       <c r="G57" s="87"/>
       <c r="H57" s="87" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I57" s="36"/>
       <c r="J57" s="36"/>
@@ -10787,7 +10776,7 @@
     </row>
     <row r="58" spans="2:49" ht="10" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B58" s="87" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C58" s="87"/>
       <c r="D58" s="87"/>
@@ -10795,7 +10784,7 @@
       <c r="F58" s="87"/>
       <c r="G58" s="87"/>
       <c r="H58" s="87" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I58" s="36"/>
       <c r="J58" s="36"/>
@@ -10841,7 +10830,7 @@
     </row>
     <row r="59" spans="2:49" ht="10" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B59" s="87" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C59" s="87"/>
       <c r="D59" s="87"/>
@@ -10849,7 +10838,7 @@
       <c r="F59" s="87"/>
       <c r="G59" s="87"/>
       <c r="H59" s="87" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I59" s="36"/>
       <c r="J59" s="36"/>
@@ -10895,7 +10884,7 @@
     </row>
     <row r="60" spans="2:49" ht="10" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B60" s="87" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C60" s="87"/>
       <c r="D60" s="87"/>
@@ -10903,7 +10892,7 @@
       <c r="F60" s="87"/>
       <c r="G60" s="87"/>
       <c r="H60" s="87" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="I60" s="36"/>
       <c r="J60" s="36"/>
@@ -10956,7 +10945,7 @@
       <c r="G61" s="87"/>
       <c r="H61" s="87"/>
       <c r="I61" s="36" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="J61" s="36"/>
       <c r="K61" s="36"/>
@@ -11001,7 +10990,7 @@
     </row>
     <row r="62" spans="2:49" ht="10" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B62" s="87" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C62" s="87"/>
       <c r="D62" s="87"/>
@@ -11009,7 +10998,7 @@
       <c r="F62" s="87"/>
       <c r="G62" s="87"/>
       <c r="H62" s="87" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="I62" s="36"/>
       <c r="J62" s="36"/>
@@ -11062,7 +11051,7 @@
       <c r="G63" s="87"/>
       <c r="H63" s="87"/>
       <c r="I63" s="36" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="J63" s="36"/>
       <c r="K63" s="36"/>
@@ -11107,7 +11096,7 @@
     </row>
     <row r="64" spans="2:49" ht="10" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B64" s="87" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C64" s="87"/>
       <c r="D64" s="87"/>
@@ -11115,7 +11104,7 @@
       <c r="F64" s="87"/>
       <c r="G64" s="87"/>
       <c r="H64" s="87" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I64" s="36"/>
       <c r="J64" s="36"/>
@@ -11161,7 +11150,7 @@
     </row>
     <row r="65" spans="2:49" ht="10" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B65" s="87" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C65" s="87"/>
       <c r="D65" s="87"/>
@@ -11169,7 +11158,7 @@
       <c r="F65" s="87"/>
       <c r="G65" s="87"/>
       <c r="H65" s="87" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I65" s="36"/>
       <c r="J65" s="36"/>
@@ -11215,7 +11204,7 @@
     </row>
     <row r="66" spans="2:49" ht="10" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B66" s="87" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C66" s="87"/>
       <c r="D66" s="87"/>
@@ -11223,7 +11212,7 @@
       <c r="F66" s="87"/>
       <c r="G66" s="87"/>
       <c r="H66" s="87" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I66" s="36"/>
       <c r="J66" s="36"/>
@@ -12135,27 +12124,22 @@
     <row r="295" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="W9:Z11"/>
-    <mergeCell ref="R9:U11"/>
-    <mergeCell ref="M9:P11"/>
-    <mergeCell ref="AE16:AW16"/>
-    <mergeCell ref="H40:Q40"/>
-    <mergeCell ref="AE22:AW23"/>
-    <mergeCell ref="AB9:AE11"/>
-    <mergeCell ref="AG9:AJ11"/>
-    <mergeCell ref="AE33:AW34"/>
-    <mergeCell ref="AE36:AW36"/>
-    <mergeCell ref="AE37:AW37"/>
-    <mergeCell ref="AE38:AW38"/>
-    <mergeCell ref="AE39:AW39"/>
-    <mergeCell ref="AE40:AW40"/>
-    <mergeCell ref="AS2:AV5"/>
-    <mergeCell ref="AS6:AV6"/>
-    <mergeCell ref="AN2:AQ5"/>
-    <mergeCell ref="AN6:AQ6"/>
-    <mergeCell ref="AG8:AJ8"/>
-    <mergeCell ref="AQ8:AT8"/>
-    <mergeCell ref="AL8:AO8"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="B9:E11"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B16:E18"/>
+    <mergeCell ref="B44:AW45"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B23:E25"/>
+    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="C40:D41"/>
+    <mergeCell ref="S28:AB28"/>
+    <mergeCell ref="S42:AB42"/>
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="B30:E32"/>
+    <mergeCell ref="C33:D34"/>
+    <mergeCell ref="B36:E36"/>
     <mergeCell ref="B37:E39"/>
     <mergeCell ref="S2:Z3"/>
     <mergeCell ref="AB2:AI3"/>
@@ -12172,22 +12156,27 @@
     <mergeCell ref="AQ9:AT11"/>
     <mergeCell ref="AL9:AO11"/>
     <mergeCell ref="H9:K11"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="B9:E11"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B16:E18"/>
-    <mergeCell ref="B44:AW45"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B23:E25"/>
-    <mergeCell ref="C26:D27"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="C40:D41"/>
-    <mergeCell ref="S28:AB28"/>
-    <mergeCell ref="S40:AB40"/>
-    <mergeCell ref="C19:D20"/>
-    <mergeCell ref="B30:E32"/>
-    <mergeCell ref="C33:D34"/>
-    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="AS2:AV5"/>
+    <mergeCell ref="AS6:AV6"/>
+    <mergeCell ref="AN2:AQ5"/>
+    <mergeCell ref="AN6:AQ6"/>
+    <mergeCell ref="AG8:AJ8"/>
+    <mergeCell ref="AQ8:AT8"/>
+    <mergeCell ref="AL8:AO8"/>
+    <mergeCell ref="W9:Z11"/>
+    <mergeCell ref="R9:U11"/>
+    <mergeCell ref="M9:P11"/>
+    <mergeCell ref="AE16:AW16"/>
+    <mergeCell ref="H42:Q42"/>
+    <mergeCell ref="AE22:AW23"/>
+    <mergeCell ref="AB9:AE11"/>
+    <mergeCell ref="AG9:AJ11"/>
+    <mergeCell ref="AE33:AW34"/>
+    <mergeCell ref="AE36:AW36"/>
+    <mergeCell ref="AE37:AW37"/>
+    <mergeCell ref="AE38:AW38"/>
+    <mergeCell ref="AE39:AW39"/>
+    <mergeCell ref="AE40:AW40"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F47:F66" xr:uid="{5C701B08-41BE-604B-AAAA-AB89F1550D27}">
@@ -12217,63 +12206,63 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="G1" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="L1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B2" s="2">
         <v>0</v>
@@ -12309,7 +12298,7 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B3" s="2">
         <v>0</v>
@@ -12349,7 +12338,7 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B4" s="2">
         <v>15</v>
@@ -12389,7 +12378,7 @@
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B5" s="2">
         <v>10</v>
@@ -12429,7 +12418,7 @@
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B6" s="2">
         <v>12</v>
@@ -12469,7 +12458,7 @@
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B7" s="2">
         <v>0</v>
@@ -12509,7 +12498,7 @@
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B8" s="2">
         <v>10</v>
@@ -12549,7 +12538,7 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B9" s="2">
         <v>10</v>
@@ -12589,7 +12578,7 @@
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B10" s="2">
         <v>12</v>
@@ -12629,7 +12618,7 @@
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B11" s="2">
         <v>20</v>
@@ -12669,7 +12658,7 @@
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B12" s="2">
         <v>15</v>
@@ -12709,7 +12698,7 @@
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B13" s="2">
         <v>0</v>
@@ -13233,66 +13222,66 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="G1" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="L1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="R1" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="T1" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B2" s="2">
         <v>0</v>
@@ -13318,7 +13307,7 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B3" s="2">
         <v>18</v>
@@ -13348,7 +13337,7 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B4" s="2">
         <v>26</v>
@@ -13378,7 +13367,7 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B5" s="2">
         <v>20</v>
@@ -13408,7 +13397,7 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B6" s="2">
         <v>2</v>
@@ -13438,7 +13427,7 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B7" s="2">
         <v>0</v>
@@ -13468,7 +13457,7 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B8" s="2">
         <v>15</v>
@@ -13498,7 +13487,7 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B9" s="2">
         <v>17</v>
@@ -13528,7 +13517,7 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B10" s="2">
         <v>6</v>
@@ -13558,7 +13547,7 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B11" s="2">
         <v>10</v>
@@ -13588,7 +13577,7 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B12" s="2">
         <v>0</v>
@@ -13618,7 +13607,7 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B13" s="2">
         <v>0</v>
@@ -13648,7 +13637,7 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B14" s="2">
         <v>13</v>
@@ -13678,7 +13667,7 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B15" s="2">
         <v>8</v>
@@ -13708,7 +13697,7 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B16" s="2">
         <v>10</v>
@@ -13738,7 +13727,7 @@
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B17" s="2">
         <v>20</v>
@@ -13768,7 +13757,7 @@
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B18" s="2">
         <v>8</v>
@@ -13798,7 +13787,7 @@
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B19" s="2">
         <v>10</v>
@@ -13828,7 +13817,7 @@
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B20" s="2">
         <v>0</v>
@@ -14108,50 +14097,50 @@
   <sheetData>
     <row r="1" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M1" s="9"/>
       <c r="O1" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P1" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Q1" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="R1" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="S1" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
@@ -14174,7 +14163,7 @@
         <v>3</v>
       </c>
       <c r="I2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J2" s="8">
         <v>0</v>
@@ -14187,7 +14176,7 @@
       </c>
       <c r="M2" s="8"/>
       <c r="O2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P2" s="8">
         <v>1</v>
@@ -14223,7 +14212,7 @@
         <v>4</v>
       </c>
       <c r="I3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J3" s="8">
         <v>1</v>
@@ -14236,7 +14225,7 @@
       </c>
       <c r="M3" s="8"/>
       <c r="O3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P3" s="8">
         <v>1</v>
@@ -14272,7 +14261,7 @@
         <v>5</v>
       </c>
       <c r="I4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J4" s="8">
         <v>2</v>
@@ -14285,7 +14274,7 @@
       </c>
       <c r="M4" s="8"/>
       <c r="O4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="P4" s="8">
         <v>2</v>
@@ -14321,7 +14310,7 @@
         <v>6</v>
       </c>
       <c r="I5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J5" s="8">
         <v>3</v>
@@ -14334,7 +14323,7 @@
       </c>
       <c r="M5" s="8"/>
       <c r="O5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="P5" s="8">
         <v>3</v>
@@ -14370,7 +14359,7 @@
         <v>7</v>
       </c>
       <c r="I6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J6" s="8">
         <v>0</v>
@@ -14382,7 +14371,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="P6" s="8">
         <v>0</v>
@@ -14418,7 +14407,7 @@
         <v>8</v>
       </c>
       <c r="I7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J7" s="8">
         <v>0</v>
@@ -14430,7 +14419,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="P7" s="8">
         <v>0</v>
@@ -14466,7 +14455,7 @@
         <v>9</v>
       </c>
       <c r="I8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J8" s="8">
         <v>0</v>
@@ -14478,7 +14467,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="P8" s="8">
         <v>0</v>
@@ -14514,7 +14503,7 @@
         <v>10</v>
       </c>
       <c r="I9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J9" s="8">
         <v>0</v>
@@ -14526,7 +14515,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="P9" s="8">
         <v>0</v>
@@ -14562,7 +14551,7 @@
         <v>11</v>
       </c>
       <c r="I10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J10" s="8">
         <v>0</v>
@@ -14574,7 +14563,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P10" s="8">
         <v>0</v>
@@ -14686,7 +14675,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B17" s="5">
         <f>VLOOKUP(XP,A2:B15,2,TRUE)</f>
@@ -14717,31 +14706,31 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -14753,8 +14742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8280EFA-ECF3-804F-AF7A-CBB70278A61B}">
   <dimension ref="A1:S43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -14771,68 +14760,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="I1" s="122" t="s">
-        <v>73</v>
-      </c>
-      <c r="J1" s="122"/>
-      <c r="K1" s="122"/>
-      <c r="L1" s="122"/>
-      <c r="M1" s="122"/>
-      <c r="N1" s="122"/>
+      <c r="I1" s="124" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1" s="124"/>
+      <c r="K1" s="124"/>
+      <c r="L1" s="124"/>
+      <c r="M1" s="124"/>
+      <c r="N1" s="124"/>
       <c r="O1" s="11"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="B2" s="120" t="s">
-        <v>270</v>
-      </c>
-      <c r="C2" s="121"/>
+        <v>134</v>
+      </c>
+      <c r="B2" s="122" t="s">
+        <v>288</v>
+      </c>
+      <c r="C2" s="123"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
-      <c r="I2" s="122"/>
-      <c r="J2" s="122"/>
-      <c r="K2" s="122"/>
-      <c r="L2" s="122"/>
-      <c r="M2" s="122"/>
-      <c r="N2" s="122"/>
+      <c r="I2" s="124"/>
+      <c r="J2" s="124"/>
+      <c r="K2" s="124"/>
+      <c r="L2" s="124"/>
+      <c r="M2" s="124"/>
+      <c r="N2" s="124"/>
       <c r="O2" s="11"/>
       <c r="Q2" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S2" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="B3" s="123">
+        <v>57</v>
+      </c>
+      <c r="B3" s="120">
         <f>VLOOKUP(TOTAL_XP,XP_LEVEL,2,TRUE)</f>
         <v>5</v>
       </c>
-      <c r="C3" s="124"/>
+      <c r="C3" s="121"/>
       <c r="D3" s="7"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="I3" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="J3" s="14" t="s">
-        <v>60</v>
-      </c>
       <c r="K3" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L3" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q3" s="17"/>
       <c r="R3" s="10">
@@ -14841,12 +14830,12 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" s="120" t="s">
-        <v>97</v>
-      </c>
-      <c r="C4" s="121"/>
+        <v>58</v>
+      </c>
+      <c r="B4" s="122" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="123"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -14871,12 +14860,12 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="B5" s="123" t="s">
-        <v>197</v>
-      </c>
-      <c r="C5" s="124"/>
+        <v>52</v>
+      </c>
+      <c r="B5" s="120" t="s">
+        <v>196</v>
+      </c>
+      <c r="C5" s="121"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -14885,13 +14874,13 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="B6" s="120">
+        <v>68</v>
+      </c>
+      <c r="B6" s="122">
         <f>SUM(D6:E6)</f>
         <v>4</v>
       </c>
-      <c r="C6" s="121"/>
+      <c r="C6" s="123"/>
       <c r="D6" s="2">
         <f>VLOOKUP(TOTAL_XP,XP_LEVEL,3,TRUE)</f>
         <v>2</v>
@@ -14903,38 +14892,38 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="I6" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="J6" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="J6" s="14" t="s">
+      <c r="K6" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="K6" s="14" t="s">
-        <v>63</v>
-      </c>
       <c r="L6" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="M6" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="M6" s="14" t="s">
-        <v>66</v>
-      </c>
       <c r="N6" s="14" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O6" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q6" s="17"/>
       <c r="R6" s="10"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="B7" s="123">
+        <v>100</v>
+      </c>
+      <c r="B7" s="120">
         <f>SUM(D7,F7) * IF(CHARACTER_LEVEL &gt; 0, CHARACTER_LEVEL, 1)</f>
         <v>75</v>
       </c>
-      <c r="C7" s="124"/>
+      <c r="C7" s="121"/>
       <c r="D7" s="2">
         <f>STR * E7 + AGI + INU + CHA + PER</f>
         <v>15</v>
@@ -14980,13 +14969,13 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="B8" s="120">
+        <v>117</v>
+      </c>
+      <c r="B8" s="122">
         <f>SUM(D8:E8)</f>
         <v>8</v>
       </c>
-      <c r="C8" s="121"/>
+      <c r="C8" s="123"/>
       <c r="D8" s="2">
         <v>10</v>
       </c>
@@ -15001,18 +14990,18 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="B9" s="123">
+        <v>120</v>
+      </c>
+      <c r="B9" s="120">
         <f>FEAT_ARMOR</f>
         <v>4</v>
       </c>
-      <c r="C9" s="124"/>
+      <c r="C9" s="121"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="I9" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K9" s="16">
         <f>L4-O7</f>
@@ -15023,13 +15012,13 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="B10" s="120">
+        <v>121</v>
+      </c>
+      <c r="B10" s="122">
         <f>FEAT_AURA</f>
         <v>2</v>
       </c>
-      <c r="C10" s="121"/>
+      <c r="C10" s="123"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -15038,13 +15027,13 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="B11" s="123">
+        <v>205</v>
+      </c>
+      <c r="B11" s="120">
         <f>D11+E11</f>
         <v>20</v>
       </c>
-      <c r="C11" s="124"/>
+      <c r="C11" s="121"/>
       <c r="D11" s="2">
         <v>20</v>
       </c>
@@ -15059,13 +15048,13 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="B12" s="120">
+        <v>206</v>
+      </c>
+      <c r="B12" s="122">
         <f>D12+E12</f>
         <v>3</v>
       </c>
-      <c r="C12" s="121"/>
+      <c r="C12" s="123"/>
       <c r="D12" s="2">
         <v>3</v>
       </c>
@@ -15080,8 +15069,8 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
-      <c r="B13" s="123"/>
-      <c r="C13" s="124"/>
+      <c r="B13" s="120"/>
+      <c r="C13" s="121"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -15090,8 +15079,8 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
-      <c r="B14" s="120"/>
-      <c r="C14" s="121"/>
+      <c r="B14" s="122"/>
+      <c r="C14" s="123"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -15100,8 +15089,8 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="13"/>
-      <c r="B15" s="123"/>
-      <c r="C15" s="124"/>
+      <c r="B15" s="120"/>
+      <c r="C15" s="121"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -15110,8 +15099,8 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="12"/>
-      <c r="B16" s="120"/>
-      <c r="C16" s="121"/>
+      <c r="B16" s="122"/>
+      <c r="C16" s="123"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -15120,8 +15109,8 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
-      <c r="B17" s="123"/>
-      <c r="C17" s="124"/>
+      <c r="B17" s="120"/>
+      <c r="C17" s="121"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -15130,8 +15119,8 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="12"/>
-      <c r="B18" s="120"/>
-      <c r="C18" s="121"/>
+      <c r="B18" s="122"/>
+      <c r="C18" s="123"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -15140,8 +15129,8 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
-      <c r="B19" s="123"/>
-      <c r="C19" s="124"/>
+      <c r="B19" s="120"/>
+      <c r="C19" s="121"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -15150,8 +15139,8 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="12"/>
-      <c r="B20" s="120"/>
-      <c r="C20" s="121"/>
+      <c r="B20" s="122"/>
+      <c r="C20" s="123"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -15160,8 +15149,8 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="13"/>
-      <c r="B21" s="123"/>
-      <c r="C21" s="124"/>
+      <c r="B21" s="120"/>
+      <c r="C21" s="121"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -15254,7 +15243,7 @@
     </row>
     <row r="43" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q43" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R43" s="10">
         <f>SUBTOTAL(109,Table11[XP])</f>
@@ -15263,15 +15252,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="I1:N2"/>
     <mergeCell ref="B2:C2"/>
@@ -15284,6 +15264,15 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -15332,66 +15321,66 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="F1" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="J1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="M1" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F2" s="3" t="str">
         <f>IF(C2="Yes","1d20","1d10")</f>
@@ -15434,19 +15423,19 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F3" s="3" t="str">
         <f t="shared" ref="F3:F6" si="0">IF(C3="Yes","1d20","1d10")</f>
@@ -15489,19 +15478,19 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F4" s="3" t="str">
         <f t="shared" si="0"/>
@@ -15544,22 +15533,22 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="G5" s="2">
         <v>5</v>
@@ -15598,19 +15587,19 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F6" s="3" t="str">
         <f t="shared" si="0"/>
@@ -15653,7 +15642,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B7" s="2">
         <f>SUM(Table1[[#Totals],[Bought]:[Expert]])</f>
@@ -15678,42 +15667,42 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:E6">
-    <cfRule type="containsText" dxfId="288" priority="8" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="24" priority="8" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F6">
-    <cfRule type="containsText" dxfId="287" priority="7" operator="containsText" text="1d10">
+    <cfRule type="containsText" dxfId="23" priority="7" operator="containsText" text="1d10">
       <formula>NOT(ISERROR(SEARCH("1d10",F2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5:L6 H2:L3 I4:L4">
-    <cfRule type="cellIs" dxfId="286" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="285" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="284" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="cellIs" dxfId="283" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="282" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="281" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15738,7 +15727,7 @@
   <dimension ref="A1:Y44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -15753,37 +15742,37 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="G1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
@@ -15791,19 +15780,19 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G2" s="4" t="str">
         <f t="shared" ref="G2:G25" si="0">IF(C2="Yes","1d20","1d10")</f>
@@ -15831,19 +15820,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G3" s="4" t="str">
         <f t="shared" si="0"/>
@@ -15867,22 +15856,22 @@
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G4" s="4" t="str">
         <f t="shared" si="0"/>
@@ -15909,19 +15898,19 @@
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G5" s="4" t="str">
         <f t="shared" si="0"/>
@@ -15948,19 +15937,19 @@
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G6" s="4" t="str">
         <f t="shared" si="0"/>
@@ -15984,22 +15973,22 @@
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G7" s="4" t="str">
         <f>IF(C7="Yes","1d20","1d10")</f>
@@ -16026,19 +16015,19 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="G8" s="4" t="str">
         <f t="shared" si="0"/>
@@ -16075,22 +16064,22 @@
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="E9" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G9" s="4" t="str">
         <f t="shared" si="0"/>
@@ -16127,22 +16116,22 @@
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G10" s="4" t="str">
         <f>IF(C10="Yes","1d20","1d10")</f>
@@ -16178,22 +16167,22 @@
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="E11" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G11" s="4" t="str">
         <f>IF(C11="Yes","1d20","1d10")</f>
@@ -16232,19 +16221,19 @@
         <v>5</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G12" s="4" t="str">
         <f t="shared" si="0"/>
@@ -16283,19 +16272,19 @@
         <v>6</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G13" s="4" t="str">
         <f t="shared" si="0"/>
@@ -16334,19 +16323,19 @@
         <v>7</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G14" s="4" t="str">
         <f t="shared" si="0"/>
@@ -16385,19 +16374,19 @@
         <v>8</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G15" s="4" t="str">
         <f t="shared" si="0"/>
@@ -16436,19 +16425,19 @@
         <v>9</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G16" s="4" t="str">
         <f t="shared" si="0"/>
@@ -16487,19 +16476,19 @@
         <v>10</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G17" s="4" t="str">
         <f t="shared" si="0"/>
@@ -16535,22 +16524,22 @@
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G18" s="4" t="str">
         <f t="shared" si="0"/>
@@ -16586,22 +16575,22 @@
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>11</v>
+        <v>287</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G19" s="4" t="str">
         <f t="shared" si="0"/>
@@ -16637,22 +16626,22 @@
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G20" s="4" t="str">
         <f t="shared" si="0"/>
@@ -16688,22 +16677,22 @@
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G21" s="4" t="str">
         <f t="shared" si="0"/>
@@ -16739,22 +16728,22 @@
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G22" s="4" t="str">
         <f t="shared" si="0"/>
@@ -16790,22 +16779,22 @@
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G23" s="4" t="str">
         <f t="shared" si="0"/>
@@ -16841,22 +16830,22 @@
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>16</v>
+        <v>286</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G24" s="4" t="str">
         <f t="shared" si="0"/>
@@ -16892,22 +16881,22 @@
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G25" s="4" t="str">
         <f t="shared" si="0"/>
@@ -16943,22 +16932,22 @@
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G26" s="4" t="str">
         <f t="shared" ref="G26" si="1">IF(C26="Yes","1d20","1d10")</f>
@@ -16994,22 +16983,22 @@
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G27" s="4" t="str">
         <f t="shared" ref="G27:G34" si="2">IF(C27="Yes","1d20","1d10")</f>
@@ -17045,22 +17034,22 @@
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G28" s="4" t="str">
         <f t="shared" si="2"/>
@@ -17294,7 +17283,7 @@
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B35" s="2">
         <f>SUM(Table2[[#Totals],[Bought]:[Expert]])</f>
@@ -17460,22 +17449,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:F25 C31:F34">
-    <cfRule type="containsText" dxfId="248" priority="5" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="16" priority="5" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:K25 H31:K34">
-    <cfRule type="cellIs" dxfId="247" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:F30">
-    <cfRule type="containsText" dxfId="246" priority="2" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="14" priority="2" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26:K30">
-    <cfRule type="cellIs" dxfId="245" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17514,57 +17503,57 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="G1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G2" s="4" t="str">
         <f t="shared" ref="G2:G9" si="0">IF(C2="Yes","1d20","1d10")</f>
@@ -17589,22 +17578,22 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G3" s="4" t="str">
         <f t="shared" si="0"/>
@@ -17628,22 +17617,22 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G4" s="4" t="str">
         <f t="shared" si="0"/>
@@ -17667,22 +17656,22 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G5" s="4" t="str">
         <f t="shared" si="0"/>
@@ -17706,22 +17695,22 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="E6" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G6" s="4" t="str">
         <f t="shared" si="0"/>
@@ -17745,22 +17734,22 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G7" s="4" t="str">
         <f>IF(C7="Yes","1d20","1d10")</f>
@@ -17784,22 +17773,22 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G8" s="4" t="str">
         <f t="shared" si="0"/>
@@ -17825,22 +17814,22 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G9" s="4" t="str">
         <f t="shared" si="0"/>
@@ -17866,22 +17855,22 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G10" s="4" t="str">
         <f t="shared" ref="G10:G16" si="1">IF(C10="Yes","1d20","1d10")</f>
@@ -18045,7 +18034,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B17" s="2">
         <f>SUM(Table217[[#Totals],[Bought]:[Expert]])</f>
@@ -18071,12 +18060,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:F16">
-    <cfRule type="containsText" dxfId="220" priority="4" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="12" priority="4" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:K16">
-    <cfRule type="cellIs" dxfId="219" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18112,51 +18101,51 @@
   <sheetData>
     <row r="1" spans="1:24" ht="44" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>202</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>108</v>
-      </c>
       <c r="L1" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B2" s="2">
         <v>2</v>
@@ -18197,12 +18186,12 @@
         <v>5</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B3" s="2">
         <v>0</v>
@@ -18243,12 +18232,12 @@
         <v>0</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B4" s="2">
         <v>2</v>
@@ -18286,12 +18275,12 @@
         <v>5</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B5" s="2">
         <v>0</v>
@@ -18315,7 +18304,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2">
@@ -18331,12 +18320,12 @@
         <v>0</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B6" s="2">
         <v>0</v>
@@ -18361,7 +18350,7 @@
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J6" s="2">
         <f>ROUND(Table9[[#This Row],[TotalRank]] * Table9[[#This Row],[Factor]], 0)</f>
@@ -18376,12 +18365,12 @@
         <v>0</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B7" s="2">
         <v>0</v>
@@ -18405,7 +18394,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2">
@@ -18421,12 +18410,12 @@
         <v>0</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B8" s="2">
         <v>2</v>
@@ -18467,12 +18456,12 @@
         <v>5</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B9" s="2">
         <v>0</v>
@@ -18497,7 +18486,7 @@
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J9" s="2">
         <f>Table9[[#This Row],[TotalRank]] * Table9[[#This Row],[Factor]]</f>
@@ -18512,12 +18501,12 @@
         <v>0</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B10" s="2">
         <v>0</v>
@@ -18542,7 +18531,7 @@
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J10" s="2">
         <f>ROUND(Table9[[#This Row],[TotalRank]] * Table9[[#This Row],[Factor]], 0)</f>
@@ -18557,12 +18546,12 @@
         <v>0</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B11" s="2">
         <v>0</v>
@@ -18603,12 +18592,12 @@
         <v>0</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B12" s="2">
         <v>0</v>
@@ -18649,12 +18638,12 @@
         <v>0</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B13" s="2">
         <v>0</v>
@@ -18689,12 +18678,12 @@
         <v>0</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B14" s="2">
         <v>2</v>
@@ -18732,12 +18721,12 @@
         <v>5</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B15" s="2">
         <v>0</v>
@@ -18996,7 +18985,7 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C1" s="125" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D1" s="125"/>
       <c r="E1" s="125"/>
@@ -19012,7 +19001,7 @@
       <c r="O1" s="125"/>
       <c r="P1" s="125"/>
       <c r="Q1" s="125" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="R1" s="125"/>
       <c r="S1" s="125"/>
@@ -19023,78 +19012,78 @@
     </row>
     <row r="2" spans="1:23" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="H2" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="B2" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="19" t="s">
+      <c r="I2" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="J2" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="D2" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="F2" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="H2" s="20" t="s">
+      <c r="K2" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="L2" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="M2" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="N2" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="O2" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="I2" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="J2" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="K2" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="L2" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="M2" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="N2" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="O2" s="20" t="s">
-        <v>141</v>
-      </c>
       <c r="P2" s="21" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Q2" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="R2" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="R2" s="21" t="s">
+      <c r="S2" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="S2" s="21" t="s">
+      <c r="T2" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="U2" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="T2" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="U2" s="21" t="s">
-        <v>39</v>
-      </c>
       <c r="V2" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D3" s="2">
         <v>0</v>
@@ -19154,13 +19143,13 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4" s="2">
         <v>2</v>
@@ -19217,18 +19206,18 @@
         <v>0</v>
       </c>
       <c r="V4" s="22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D5" s="2">
         <v>0</v>
@@ -19285,18 +19274,18 @@
         <v>0</v>
       </c>
       <c r="V5" s="22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6" s="2">
         <v>0</v>
@@ -19353,18 +19342,18 @@
         <v>0</v>
       </c>
       <c r="V6" s="22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D7" s="2">
         <v>0</v>
@@ -19421,18 +19410,18 @@
         <v>0</v>
       </c>
       <c r="V7" s="22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D8" s="2">
         <v>0</v>
@@ -19489,18 +19478,18 @@
         <v>0</v>
       </c>
       <c r="V8" s="22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D9" s="2">
         <v>0</v>
@@ -19557,15 +19546,15 @@
         <v>0</v>
       </c>
       <c r="V9" s="22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D10" s="2">
         <v>0</v>
@@ -19625,10 +19614,10 @@
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11" s="2">
         <v>0</v>
@@ -19688,10 +19677,10 @@
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D12" s="2">
         <v>0</v>
@@ -19751,10 +19740,10 @@
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D13" s="2">
         <v>0</v>
@@ -19814,10 +19803,10 @@
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D14" s="2">
         <v>0</v>
@@ -19877,10 +19866,10 @@
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D15" s="2">
         <v>0</v>
@@ -19940,10 +19929,10 @@
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D16" s="2">
         <v>0</v>
@@ -20003,10 +19992,10 @@
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D17" s="2">
         <v>0</v>
@@ -20066,10 +20055,10 @@
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D18" s="2">
         <v>0</v>
@@ -20129,10 +20118,10 @@
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D19" s="2">
         <v>0</v>
@@ -20192,10 +20181,10 @@
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D20" s="2">
         <v>0</v>
@@ -20255,10 +20244,10 @@
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D21" s="2">
         <v>0</v>
@@ -20318,7 +20307,7 @@
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C22" s="85"/>
       <c r="D22" s="85">
@@ -20399,27 +20388,27 @@
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C25" s="2">
         <f>VLOOKUP($B$25,ARMOR_TYPE,2,FALSE)</f>
@@ -20439,10 +20428,10 @@
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C26" s="2">
         <f>VLOOKUP($B$26,SHIELD_TYPE,2,FALSE)</f>
@@ -20463,7 +20452,7 @@
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="75" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B27" s="75"/>
       <c r="C27" s="76">
@@ -20544,12 +20533,12 @@
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="C1" s="125" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D1" s="125"/>
       <c r="E1" s="125"/>
       <c r="F1" s="125" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G1" s="125"/>
       <c r="H1" s="125"/>
@@ -20564,7 +20553,7 @@
       <c r="Q1" s="125"/>
       <c r="R1" s="125"/>
       <c r="S1" s="125" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="T1" s="125"/>
       <c r="U1" s="125"/>
@@ -20573,96 +20562,96 @@
     </row>
     <row r="2" spans="1:29" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="H2" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="K2" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="L2" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="M2" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="N2" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="C2" s="19" t="s">
-        <v>164</v>
-      </c>
-      <c r="D2" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>183</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="G2" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="H2" s="26" t="s">
-        <v>109</v>
-      </c>
-      <c r="I2" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="J2" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="K2" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="L2" s="20" t="s">
+      <c r="O2" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="P2" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q2" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="R2" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="S2" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="M2" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="N2" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="O2" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="P2" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q2" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="R2" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="S2" s="20" t="s">
-        <v>141</v>
-      </c>
       <c r="T2" s="20" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="U2" s="21" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="V2" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="W2" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="W2" s="21" t="s">
+      <c r="X2" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="X2" s="21" t="s">
+      <c r="Y2" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z2" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="Y2" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z2" s="21" t="s">
-        <v>39</v>
-      </c>
       <c r="AA2" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D3" s="4">
         <v>1</v>
@@ -20738,12 +20727,12 @@
         <v>Great Sword: 1d18+2+6+6+2  INI:15</v>
       </c>
       <c r="AC3" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="4"/>
@@ -20811,7 +20800,7 @@
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="4"/>
@@ -20879,7 +20868,7 @@
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="4"/>
@@ -20947,7 +20936,7 @@
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="4"/>
@@ -21015,7 +21004,7 @@
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="4"/>
@@ -21083,7 +21072,7 @@
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="4"/>
@@ -21151,7 +21140,7 @@
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="4"/>
@@ -21219,7 +21208,7 @@
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="4"/>
@@ -21287,7 +21276,7 @@
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="4"/>
@@ -21355,7 +21344,7 @@
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="4"/>
@@ -21423,7 +21412,7 @@
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="4"/>
@@ -21491,7 +21480,7 @@
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="4"/>
@@ -21559,7 +21548,7 @@
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="4"/>
@@ -21627,7 +21616,7 @@
     </row>
     <row r="17" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="4"/>
@@ -21695,7 +21684,7 @@
     </row>
     <row r="18" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="4"/>
@@ -21763,7 +21752,7 @@
     </row>
     <row r="19" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="4"/>
@@ -21831,7 +21820,7 @@
     </row>
     <row r="20" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="4"/>
@@ -21899,7 +21888,7 @@
     </row>
     <row r="21" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="4"/>
@@ -22138,33 +22127,33 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="81" t="s">
+        <v>217</v>
+      </c>
+      <c r="B2" s="81" t="s">
         <v>218</v>
-      </c>
-      <c r="B2" s="81" t="s">
-        <v>219</v>
       </c>
       <c r="C2" s="82">
         <v>1</v>
@@ -22173,21 +22162,21 @@
         <v>1</v>
       </c>
       <c r="E2" s="82" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F2" s="82">
         <v>2</v>
       </c>
       <c r="G2" s="80" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="81" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B3" s="81" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C3" s="82">
         <v>1</v>
@@ -22196,21 +22185,21 @@
         <v>1</v>
       </c>
       <c r="E3" s="82" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F3" s="82">
         <v>2</v>
       </c>
       <c r="G3" s="80" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="81" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B4" s="81" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C4" s="82">
         <v>1</v>
@@ -22219,21 +22208,21 @@
         <v>1</v>
       </c>
       <c r="E4" s="82" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F4" s="82">
         <v>0</v>
       </c>
       <c r="G4" s="80" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="81" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B5" s="81" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C5" s="82">
         <v>2</v>
@@ -22242,21 +22231,21 @@
         <v>2</v>
       </c>
       <c r="E5" s="82" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F5" s="82">
         <v>3</v>
       </c>
       <c r="G5" s="80" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="81" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B6" s="81" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C6" s="82">
         <v>3</v>
@@ -22265,21 +22254,21 @@
         <v>3</v>
       </c>
       <c r="E6" s="82" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F6" s="82">
         <v>4</v>
       </c>
       <c r="G6" s="80" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="81" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B7" s="81" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C7" s="82">
         <v>4</v>
@@ -22288,21 +22277,21 @@
         <v>5</v>
       </c>
       <c r="E7" s="82" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F7" s="82">
         <v>5</v>
       </c>
       <c r="G7" s="80" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="81" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B8" s="81" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C8" s="82">
         <v>1</v>
@@ -22311,21 +22300,21 @@
         <v>1</v>
       </c>
       <c r="E8" s="82" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F8" s="82">
         <v>0</v>
       </c>
       <c r="G8" s="80" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="81" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B9" s="81" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C9" s="82">
         <v>2</v>
@@ -22334,21 +22323,21 @@
         <v>3</v>
       </c>
       <c r="E9" s="82" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F9" s="82">
         <v>3</v>
       </c>
       <c r="G9" s="80" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="81" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B10" s="81" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C10" s="82">
         <v>3</v>
@@ -22357,21 +22346,21 @@
         <v>5</v>
       </c>
       <c r="E10" s="82" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F10" s="82">
         <v>4</v>
       </c>
       <c r="G10" s="80" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="81" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B11" s="81" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C11" s="82">
         <v>4</v>
@@ -22380,21 +22369,21 @@
         <v>7</v>
       </c>
       <c r="E11" s="82" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F11" s="82">
         <v>5</v>
       </c>
       <c r="G11" s="80" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="81" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B12" s="81" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C12" s="82">
         <v>5</v>
@@ -22403,21 +22392,21 @@
         <v>9</v>
       </c>
       <c r="E12" s="82" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F12" s="82">
         <v>6</v>
       </c>
       <c r="G12" s="80" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="81" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B13" s="81" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C13" s="82">
         <v>1</v>
@@ -22426,21 +22415,21 @@
         <v>1</v>
       </c>
       <c r="E13" s="82" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F13" s="82">
         <v>2</v>
       </c>
       <c r="G13" s="80" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="81" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B14" s="81" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C14" s="82">
         <v>2</v>
@@ -22449,21 +22438,21 @@
         <v>3</v>
       </c>
       <c r="E14" s="82" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F14" s="82">
         <v>3</v>
       </c>
       <c r="G14" s="80" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="81" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B15" s="81" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C15" s="82">
         <v>3</v>
@@ -22472,21 +22461,21 @@
         <v>4</v>
       </c>
       <c r="E15" s="82" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F15" s="82">
         <v>4</v>
       </c>
       <c r="G15" s="80" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="81" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B16" s="81" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C16" s="82">
         <v>4</v>
@@ -22495,21 +22484,21 @@
         <v>5</v>
       </c>
       <c r="E16" s="82" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F16" s="82">
         <v>5</v>
       </c>
       <c r="G16" s="80" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="81" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B17" s="81" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C17" s="82">
         <v>5</v>
@@ -22518,21 +22507,21 @@
         <v>8</v>
       </c>
       <c r="E17" s="82" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F17" s="82">
         <v>6</v>
       </c>
       <c r="G17" s="80" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="81" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B18" s="81" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C18" s="82">
         <v>1</v>
@@ -22541,21 +22530,21 @@
         <v>1</v>
       </c>
       <c r="E18" s="82" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F18" s="82">
         <v>0</v>
       </c>
       <c r="G18" s="80" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="81" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B19" s="81" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C19" s="82">
         <v>1</v>
@@ -22564,21 +22553,21 @@
         <v>1</v>
       </c>
       <c r="E19" s="82" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F19" s="82">
         <v>0</v>
       </c>
       <c r="G19" s="80" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="81" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B20" s="81" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C20" s="82">
         <v>2</v>
@@ -22587,21 +22576,21 @@
         <v>3</v>
       </c>
       <c r="E20" s="82" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F20" s="82">
         <v>3</v>
       </c>
       <c r="G20" s="80" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="81" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B21" s="81" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C21" s="82">
         <v>3</v>
@@ -22610,21 +22599,21 @@
         <v>4</v>
       </c>
       <c r="E21" s="82" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F21" s="82">
         <v>4</v>
       </c>
       <c r="G21" s="80" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="81" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B22" s="81" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C22" s="82">
         <v>4</v>
@@ -22633,21 +22622,21 @@
         <v>7</v>
       </c>
       <c r="E22" s="82" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F22" s="82">
         <v>5</v>
       </c>
       <c r="G22" s="80" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="81" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B23" s="81" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C23" s="82">
         <v>5</v>
@@ -22656,21 +22645,21 @@
         <v>9</v>
       </c>
       <c r="E23" s="82" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F23" s="82">
         <v>6</v>
       </c>
       <c r="G23" s="80" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="81" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B24" s="81" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C24" s="82">
         <v>1</v>
@@ -22679,21 +22668,21 @@
         <v>1</v>
       </c>
       <c r="E24" s="82" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F24" s="82">
         <v>2</v>
       </c>
       <c r="G24" s="80" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="81" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B25" s="81" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C25" s="82">
         <v>2</v>
@@ -22702,21 +22691,21 @@
         <v>5</v>
       </c>
       <c r="E25" s="82" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F25" s="82">
         <v>3</v>
       </c>
       <c r="G25" s="80" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="81" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B26" s="81" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C26" s="82">
         <v>3</v>
@@ -22725,21 +22714,21 @@
         <v>10</v>
       </c>
       <c r="E26" s="82" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F26" s="82">
         <v>4</v>
       </c>
       <c r="G26" s="80" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="81" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B27" s="81" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C27" s="82">
         <v>1</v>
@@ -22748,21 +22737,21 @@
         <v>1</v>
       </c>
       <c r="E27" s="82" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F27" s="82">
         <v>0</v>
       </c>
       <c r="G27" s="80" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="81" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B28" s="81" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C28" s="82">
         <v>2</v>
@@ -22771,21 +22760,21 @@
         <v>3</v>
       </c>
       <c r="E28" s="82" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F28" s="82">
         <v>3</v>
       </c>
       <c r="G28" s="80" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="81" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B29" s="81" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C29" s="82">
         <v>3</v>
@@ -22794,21 +22783,21 @@
         <v>5</v>
       </c>
       <c r="E29" s="82" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F29" s="82">
         <v>4</v>
       </c>
       <c r="G29" s="80" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="81" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B30" s="81" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C30" s="82">
         <v>4</v>
@@ -22817,21 +22806,21 @@
         <v>8</v>
       </c>
       <c r="E30" s="82" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F30" s="82">
         <v>5</v>
       </c>
       <c r="G30" s="80" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="81" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B31" s="81" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C31" s="82">
         <v>1</v>
@@ -22840,21 +22829,21 @@
         <v>1</v>
       </c>
       <c r="E31" s="82" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F31" s="82">
         <v>2</v>
       </c>
       <c r="G31" s="80" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="81" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B32" s="81" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C32" s="82">
         <v>1</v>
@@ -22863,21 +22852,21 @@
         <v>3</v>
       </c>
       <c r="E32" s="82" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F32" s="82">
         <v>3</v>
       </c>
       <c r="G32" s="80" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="81" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B33" s="81" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C33" s="82">
         <v>1</v>
@@ -22886,21 +22875,21 @@
         <v>1</v>
       </c>
       <c r="E33" s="82" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F33" s="82">
         <v>3</v>
       </c>
       <c r="G33" s="80" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="81" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B34" s="81" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C34" s="82">
         <v>1</v>
@@ -22909,21 +22898,21 @@
         <v>1</v>
       </c>
       <c r="E34" s="82" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F34" s="82">
         <v>2</v>
       </c>
       <c r="G34" s="80" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="81" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B35" s="81" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C35" s="82">
         <v>2</v>
@@ -22932,21 +22921,21 @@
         <v>3</v>
       </c>
       <c r="E35" s="82" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F35" s="82">
         <v>3</v>
       </c>
       <c r="G35" s="80" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="81" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B36" s="81" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C36" s="82">
         <v>3</v>
@@ -22955,21 +22944,21 @@
         <v>5</v>
       </c>
       <c r="E36" s="82" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F36" s="82">
         <v>4</v>
       </c>
       <c r="G36" s="80" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="81" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B37" s="81" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C37" s="82">
         <v>4</v>
@@ -22978,21 +22967,21 @@
         <v>7</v>
       </c>
       <c r="E37" s="82" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F37" s="82">
         <v>5</v>
       </c>
       <c r="G37" s="80" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="81" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B38" s="81" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C38" s="82">
         <v>5</v>
@@ -23001,18 +22990,18 @@
         <v>10</v>
       </c>
       <c r="E38" s="82" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F38" s="82">
         <v>6</v>
       </c>
       <c r="G38" s="80" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F39" s="8">
         <f>SUMIF(Table18[Enabled],"=Yes",Table18[XP])</f>
